--- a/database/industries/folad/faspa/product/monthly.xlsx
+++ b/database/industries/folad/faspa/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\faspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\faspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0372C8CF-88BE-47FC-A418-E92F1FA9A92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6F3C56-3C8A-4371-BDDB-44AABEF67D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فسپا-گروه‌صنعتی‌سپاهان‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -745,12 +745,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -805,7 +805,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -974,7 +974,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1143,7 +1143,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1355,7 +1355,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1504,47 +1504,47 @@
       <c r="AF11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>57</v>
+      <c r="AG11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>40</v>
       </c>
       <c r="AI11" s="11">
+        <v>137</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>188</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>904</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>272</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>111</v>
+      </c>
+      <c r="AQ11" s="11">
         <v>1</v>
       </c>
-      <c r="AJ11" s="11">
-        <v>40</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>137</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>188</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>904</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>272</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>12</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>111</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="11" t="s">
-        <v>57</v>
+      <c r="AR11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>0</v>
       </c>
       <c r="AU11" s="11">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1580,37 +1580,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="F12" s="13">
-        <v>413</v>
+        <v>899</v>
       </c>
       <c r="G12" s="13">
-        <v>1169</v>
+        <v>489</v>
       </c>
       <c r="H12" s="13">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13">
-        <v>489</v>
+        <v>111</v>
       </c>
       <c r="J12" s="13">
         <v>0</v>
       </c>
       <c r="K12" s="13">
+        <v>52</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
         <v>111</v>
       </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>52</v>
-      </c>
       <c r="N12" s="13">
         <v>0</v>
       </c>
       <c r="O12" s="13">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="P12" s="13">
         <v>0</v>
@@ -1619,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="R12" s="13">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="S12" s="13">
         <v>0</v>
       </c>
-      <c r="T12" s="13">
-        <v>92</v>
+      <c r="T12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U12" s="13">
         <v>0</v>
       </c>
-      <c r="V12" s="13" t="s">
-        <v>57</v>
+      <c r="V12" s="13">
+        <v>0</v>
       </c>
       <c r="W12" s="13">
         <v>0</v>
@@ -1640,31 +1640,31 @@
         <v>0</v>
       </c>
       <c r="Y12" s="13">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Z12" s="13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA12" s="13">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="13">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="13">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="AD12" s="13">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AE12" s="13">
-        <v>331</v>
+        <v>3</v>
       </c>
       <c r="AF12" s="13">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="13">
         <v>0</v>
@@ -1696,11 +1696,11 @@
       <c r="AQ12" s="13">
         <v>0</v>
       </c>
-      <c r="AR12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>0</v>
+      <c r="AR12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT12" s="13" t="s">
         <v>57</v>
@@ -1730,7 +1730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1745,85 +1745,85 @@
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
       </c>
       <c r="I13" s="11">
+        <v>2</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
         <v>5</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>2</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
       <c r="N13" s="11">
         <v>0</v>
       </c>
       <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>0</v>
+      </c>
+      <c r="X13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="11">
         <v>5</v>
       </c>
-      <c r="P13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>0</v>
-      </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
-        <v>0</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W13" s="11">
-        <v>0</v>
-      </c>
-      <c r="X13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>0</v>
-      </c>
       <c r="AA13" s="11">
         <v>0</v>
       </c>
       <c r="AB13" s="11">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="AC13" s="11">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AD13" s="11">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="11">
-        <v>94</v>
+        <v>736</v>
       </c>
       <c r="AF13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="11">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="11">
         <v>0</v>
@@ -1855,11 +1855,11 @@
       <c r="AQ13" s="11">
         <v>0</v>
       </c>
-      <c r="AR13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>0</v>
+      <c r="AR13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT13" s="11" t="s">
         <v>57</v>
@@ -1889,7 +1889,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1898,128 +1898,128 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>14207</v>
+        <v>9854</v>
       </c>
       <c r="F14" s="13">
-        <v>10660</v>
+        <v>17523</v>
       </c>
       <c r="G14" s="13">
-        <v>9854</v>
+        <v>17247</v>
       </c>
       <c r="H14" s="13">
-        <v>17523</v>
+        <v>7276</v>
       </c>
       <c r="I14" s="13">
-        <v>17247</v>
+        <v>15845</v>
       </c>
       <c r="J14" s="13">
-        <v>7276</v>
+        <v>20592</v>
       </c>
       <c r="K14" s="13">
-        <v>15845</v>
+        <v>9345</v>
       </c>
       <c r="L14" s="13">
-        <v>20592</v>
+        <v>14243</v>
       </c>
       <c r="M14" s="13">
-        <v>9345</v>
+        <v>14907</v>
       </c>
       <c r="N14" s="13">
-        <v>14243</v>
+        <v>14831</v>
       </c>
       <c r="O14" s="13">
-        <v>14907</v>
+        <v>11003</v>
       </c>
       <c r="P14" s="13">
-        <v>14831</v>
+        <v>16070</v>
       </c>
       <c r="Q14" s="13">
-        <v>11003</v>
+        <v>14010</v>
       </c>
       <c r="R14" s="13">
-        <v>16070</v>
+        <v>7262</v>
       </c>
       <c r="S14" s="13">
-        <v>14010</v>
+        <v>4917</v>
       </c>
       <c r="T14" s="13">
-        <v>7262</v>
+        <v>3619</v>
       </c>
       <c r="U14" s="13">
-        <v>4917</v>
+        <v>18081</v>
       </c>
       <c r="V14" s="13">
-        <v>3619</v>
+        <v>18135</v>
       </c>
       <c r="W14" s="13">
-        <v>18081</v>
+        <v>15231</v>
       </c>
       <c r="X14" s="13">
-        <v>18135</v>
+        <v>5783</v>
       </c>
       <c r="Y14" s="13">
-        <v>15231</v>
+        <v>10833</v>
       </c>
       <c r="Z14" s="13">
-        <v>5783</v>
+        <v>9463</v>
       </c>
       <c r="AA14" s="13">
-        <v>10833</v>
+        <v>4880</v>
       </c>
       <c r="AB14" s="13">
-        <v>9463</v>
+        <v>4200</v>
       </c>
       <c r="AC14" s="13">
-        <v>4880</v>
+        <v>5170</v>
       </c>
       <c r="AD14" s="13">
-        <v>4200</v>
+        <v>6469</v>
       </c>
       <c r="AE14" s="13">
-        <v>5170</v>
+        <v>10957</v>
       </c>
       <c r="AF14" s="13">
-        <v>6469</v>
+        <v>7865</v>
       </c>
       <c r="AG14" s="13">
-        <v>10957</v>
+        <v>9455</v>
       </c>
       <c r="AH14" s="13">
-        <v>7865</v>
+        <v>9436</v>
       </c>
       <c r="AI14" s="13">
-        <v>9455</v>
+        <v>4814</v>
       </c>
       <c r="AJ14" s="13">
-        <v>9436</v>
+        <v>7236</v>
       </c>
       <c r="AK14" s="13">
-        <v>4814</v>
+        <v>10755</v>
       </c>
       <c r="AL14" s="13">
-        <v>7236</v>
+        <v>8783</v>
       </c>
       <c r="AM14" s="13">
-        <v>10755</v>
+        <v>9193</v>
       </c>
       <c r="AN14" s="13">
-        <v>8783</v>
+        <v>8341</v>
       </c>
       <c r="AO14" s="13">
-        <v>9193</v>
+        <v>7826</v>
       </c>
       <c r="AP14" s="13">
-        <v>8341</v>
+        <v>10471</v>
       </c>
       <c r="AQ14" s="13">
-        <v>7826</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>10471</v>
-      </c>
-      <c r="AS14" s="13">
         <v>9638</v>
       </c>
+      <c r="AR14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2057,65 +2057,65 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>664</v>
+        <v>1009</v>
       </c>
       <c r="F15" s="11">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G15" s="11">
-        <v>1009</v>
+        <v>313</v>
       </c>
       <c r="H15" s="11">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="I15" s="11">
-        <v>313</v>
+        <v>543</v>
       </c>
       <c r="J15" s="11">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K15" s="11">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="L15" s="11">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="M15" s="11">
-        <v>0</v>
+        <v>1506</v>
       </c>
       <c r="N15" s="11">
-        <v>536</v>
+        <v>1040</v>
       </c>
       <c r="O15" s="11">
-        <v>1506</v>
+        <v>321</v>
       </c>
       <c r="P15" s="11">
-        <v>1040</v>
+        <v>1795</v>
       </c>
       <c r="Q15" s="11">
-        <v>321</v>
+        <v>863</v>
       </c>
       <c r="R15" s="11">
-        <v>1795</v>
+        <v>837</v>
       </c>
       <c r="S15" s="11">
-        <v>863</v>
+        <v>1146</v>
       </c>
       <c r="T15" s="11">
-        <v>837</v>
+        <v>229</v>
       </c>
       <c r="U15" s="11">
-        <v>1146</v>
+        <v>2504</v>
       </c>
       <c r="V15" s="11">
-        <v>229</v>
-      </c>
-      <c r="W15" s="11">
-        <v>2504</v>
-      </c>
-      <c r="X15" s="11">
         <v>1281</v>
       </c>
+      <c r="W15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2332,41 +2332,41 @@
       <c r="AQ16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS16" s="13" t="s">
-        <v>57</v>
+      <c r="AR16" s="13">
+        <v>6916</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>12546</v>
       </c>
       <c r="AT16" s="13">
-        <v>6916</v>
+        <v>15100</v>
       </c>
       <c r="AU16" s="13">
-        <v>12537</v>
+        <v>11325</v>
       </c>
       <c r="AV16" s="13">
-        <v>15100</v>
+        <v>11371</v>
       </c>
       <c r="AW16" s="13">
-        <v>11325</v>
+        <v>14842</v>
       </c>
       <c r="AX16" s="13">
-        <v>11371</v>
+        <v>12105</v>
       </c>
       <c r="AY16" s="13">
-        <v>14842</v>
+        <v>11003</v>
       </c>
       <c r="AZ16" s="13">
-        <v>12105</v>
+        <v>13219</v>
       </c>
       <c r="BA16" s="13">
-        <v>11003</v>
+        <v>12355</v>
       </c>
       <c r="BB16" s="13">
-        <v>13219</v>
+        <v>8719</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2455,14 +2455,14 @@
       <c r="AE17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF17" s="11" t="s">
-        <v>57</v>
+      <c r="AF17" s="11">
+        <v>0</v>
       </c>
       <c r="AG17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH17" s="11">
-        <v>0</v>
+      <c r="AH17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>57</v>
@@ -2525,7 +2525,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2647,14 +2647,14 @@
       <c r="AP18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>0</v>
+      <c r="AQ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT18" s="13" t="s">
         <v>57</v>
@@ -2684,7 +2684,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2809,11 +2809,11 @@
       <c r="AQ19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS19" s="11" t="s">
-        <v>57</v>
+      <c r="AR19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>0</v>
       </c>
       <c r="AT19" s="11">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2941,11 +2941,11 @@
       <c r="AH20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ20" s="13" t="s">
-        <v>57</v>
+      <c r="AI20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>0</v>
       </c>
       <c r="AK20" s="13">
         <v>0</v>
@@ -2969,22 +2969,22 @@
         <v>0</v>
       </c>
       <c r="AR20" s="13">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AS20" s="13">
         <v>0</v>
       </c>
       <c r="AT20" s="13">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AU20" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV20" s="13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="13">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>68</v>
       </c>
@@ -3059,7 +3059,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>61</v>
       </c>
@@ -3121,104 +3121,104 @@
       <c r="V22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X22" s="11" t="s">
-        <v>57</v>
+      <c r="W22" s="11">
+        <v>1110</v>
+      </c>
+      <c r="X22" s="11">
+        <v>1446</v>
       </c>
       <c r="Y22" s="11">
-        <v>1110</v>
+        <v>1285</v>
       </c>
       <c r="Z22" s="11">
-        <v>1446</v>
+        <v>785</v>
       </c>
       <c r="AA22" s="11">
-        <v>1285</v>
+        <v>827</v>
       </c>
       <c r="AB22" s="11">
-        <v>785</v>
+        <v>997</v>
       </c>
       <c r="AC22" s="11">
-        <v>827</v>
+        <v>1156</v>
       </c>
       <c r="AD22" s="11">
-        <v>997</v>
+        <v>1640</v>
       </c>
       <c r="AE22" s="11">
-        <v>1156</v>
+        <v>724</v>
       </c>
       <c r="AF22" s="11">
-        <v>1640</v>
+        <v>1079</v>
       </c>
       <c r="AG22" s="11">
-        <v>724</v>
+        <v>1469</v>
       </c>
       <c r="AH22" s="11">
-        <v>1079</v>
+        <v>1032</v>
       </c>
       <c r="AI22" s="11">
-        <v>1469</v>
+        <v>1835</v>
       </c>
       <c r="AJ22" s="11">
-        <v>1032</v>
+        <v>1189</v>
       </c>
       <c r="AK22" s="11">
-        <v>1835</v>
+        <v>545</v>
       </c>
       <c r="AL22" s="11">
-        <v>1189</v>
+        <v>1001</v>
       </c>
       <c r="AM22" s="11">
-        <v>545</v>
+        <v>2138</v>
       </c>
       <c r="AN22" s="11">
-        <v>1001</v>
+        <v>1429</v>
       </c>
       <c r="AO22" s="11">
-        <v>2138</v>
+        <v>1420</v>
       </c>
       <c r="AP22" s="11">
-        <v>1429</v>
+        <v>1030</v>
       </c>
       <c r="AQ22" s="11">
-        <v>1420</v>
+        <v>1943</v>
       </c>
       <c r="AR22" s="11">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="AS22" s="11">
-        <v>1943</v>
+        <v>2202</v>
       </c>
       <c r="AT22" s="11">
-        <v>1054</v>
+        <v>1965</v>
       </c>
       <c r="AU22" s="11">
-        <v>2214</v>
+        <v>1061</v>
       </c>
       <c r="AV22" s="11">
-        <v>1965</v>
+        <v>1925</v>
       </c>
       <c r="AW22" s="11">
-        <v>1061</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="11">
-        <v>1925</v>
+        <v>1273</v>
       </c>
       <c r="AY22" s="11">
-        <v>0</v>
+        <v>2793</v>
       </c>
       <c r="AZ22" s="11">
-        <v>1273</v>
+        <v>1068</v>
       </c>
       <c r="BA22" s="11">
-        <v>2793</v>
+        <v>1585</v>
       </c>
       <c r="BB22" s="11">
-        <v>1068</v>
+        <v>2567</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>69</v>
       </c>
@@ -3278,11 +3278,11 @@
       <c r="V23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>57</v>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>0</v>
       </c>
       <c r="Y23" s="15">
         <v>0</v>
@@ -3375,164 +3375,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17">
-        <v>14871</v>
+        <v>12032</v>
       </c>
       <c r="F24" s="17">
-        <v>11258</v>
+        <v>18616</v>
       </c>
       <c r="G24" s="17">
-        <v>12032</v>
+        <v>18054</v>
       </c>
       <c r="H24" s="17">
-        <v>18616</v>
+        <v>7314</v>
       </c>
       <c r="I24" s="17">
-        <v>18054</v>
+        <v>16501</v>
       </c>
       <c r="J24" s="17">
-        <v>7314</v>
+        <v>20592</v>
       </c>
       <c r="K24" s="17">
-        <v>16501</v>
+        <v>9397</v>
       </c>
       <c r="L24" s="17">
-        <v>20592</v>
+        <v>14779</v>
       </c>
       <c r="M24" s="17">
-        <v>9397</v>
+        <v>16529</v>
       </c>
       <c r="N24" s="17">
-        <v>14779</v>
+        <v>15871</v>
       </c>
       <c r="O24" s="17">
-        <v>16529</v>
+        <v>11324</v>
       </c>
       <c r="P24" s="17">
-        <v>15871</v>
+        <v>17865</v>
       </c>
       <c r="Q24" s="17">
-        <v>11324</v>
+        <v>14873</v>
       </c>
       <c r="R24" s="17">
-        <v>17865</v>
+        <v>8191</v>
       </c>
       <c r="S24" s="17">
-        <v>14873</v>
+        <v>6063</v>
       </c>
       <c r="T24" s="17">
-        <v>8191</v>
+        <v>3848</v>
       </c>
       <c r="U24" s="17">
-        <v>6063</v>
+        <v>20585</v>
       </c>
       <c r="V24" s="17">
-        <v>3848</v>
+        <v>19416</v>
       </c>
       <c r="W24" s="17">
-        <v>20585</v>
+        <v>16341</v>
       </c>
       <c r="X24" s="17">
-        <v>19416</v>
+        <v>7229</v>
       </c>
       <c r="Y24" s="17">
-        <v>16341</v>
+        <v>12198</v>
       </c>
       <c r="Z24" s="17">
-        <v>7229</v>
+        <v>10279</v>
       </c>
       <c r="AA24" s="17">
-        <v>12198</v>
+        <v>5708</v>
       </c>
       <c r="AB24" s="17">
-        <v>10279</v>
+        <v>5332</v>
       </c>
       <c r="AC24" s="17">
-        <v>5708</v>
+        <v>6751</v>
       </c>
       <c r="AD24" s="17">
-        <v>5332</v>
+        <v>8222</v>
       </c>
       <c r="AE24" s="17">
-        <v>6751</v>
+        <v>12420</v>
       </c>
       <c r="AF24" s="17">
-        <v>8222</v>
+        <v>8944</v>
       </c>
       <c r="AG24" s="17">
-        <v>12420</v>
+        <v>10925</v>
       </c>
       <c r="AH24" s="17">
-        <v>8944</v>
+        <v>10508</v>
       </c>
       <c r="AI24" s="17">
-        <v>10925</v>
+        <v>6786</v>
       </c>
       <c r="AJ24" s="17">
-        <v>10508</v>
+        <v>8613</v>
       </c>
       <c r="AK24" s="17">
-        <v>6786</v>
+        <v>11302</v>
       </c>
       <c r="AL24" s="17">
-        <v>8613</v>
+        <v>9784</v>
       </c>
       <c r="AM24" s="17">
-        <v>11302</v>
+        <v>12235</v>
       </c>
       <c r="AN24" s="17">
-        <v>9784</v>
+        <v>10042</v>
       </c>
       <c r="AO24" s="17">
-        <v>12235</v>
+        <v>9258</v>
       </c>
       <c r="AP24" s="17">
-        <v>10042</v>
+        <v>11612</v>
       </c>
       <c r="AQ24" s="17">
-        <v>9258</v>
+        <v>11582</v>
       </c>
       <c r="AR24" s="17">
-        <v>10582</v>
+        <v>8018</v>
       </c>
       <c r="AS24" s="17">
-        <v>11582</v>
+        <v>14748</v>
       </c>
       <c r="AT24" s="17">
-        <v>8018</v>
+        <v>17118</v>
       </c>
       <c r="AU24" s="17">
-        <v>14751</v>
+        <v>12388</v>
       </c>
       <c r="AV24" s="17">
-        <v>17118</v>
+        <v>13296</v>
       </c>
       <c r="AW24" s="17">
-        <v>12388</v>
+        <v>14842</v>
       </c>
       <c r="AX24" s="17">
-        <v>13296</v>
+        <v>13378</v>
       </c>
       <c r="AY24" s="17">
-        <v>14842</v>
+        <v>13796</v>
       </c>
       <c r="AZ24" s="17">
-        <v>13378</v>
+        <v>14287</v>
       </c>
       <c r="BA24" s="17">
-        <v>13796</v>
+        <v>13940</v>
       </c>
       <c r="BB24" s="17">
-        <v>14287</v>
+        <v>11286</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3587,7 +3587,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3642,7 +3642,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3697,7 +3697,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>71</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3909,7 +3909,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>71</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -4058,47 +4058,47 @@
       <c r="AF31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH31" s="11" t="s">
-        <v>57</v>
+      <c r="AG31" s="11">
+        <v>904</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>616</v>
       </c>
       <c r="AI31" s="11">
-        <v>904</v>
+        <v>1186</v>
       </c>
       <c r="AJ31" s="11">
-        <v>616</v>
+        <v>1449</v>
       </c>
       <c r="AK31" s="11">
-        <v>1186</v>
+        <v>364</v>
       </c>
       <c r="AL31" s="11">
-        <v>1449</v>
+        <v>1024</v>
       </c>
       <c r="AM31" s="11">
-        <v>364</v>
+        <v>1392</v>
       </c>
       <c r="AN31" s="11">
-        <v>1024</v>
+        <v>2183</v>
       </c>
       <c r="AO31" s="11">
-        <v>1392</v>
+        <v>779</v>
       </c>
       <c r="AP31" s="11">
-        <v>2183</v>
+        <v>1232</v>
       </c>
       <c r="AQ31" s="11">
-        <v>779</v>
-      </c>
-      <c r="AR31" s="11">
-        <v>1232</v>
-      </c>
-      <c r="AS31" s="11">
         <v>422</v>
       </c>
-      <c r="AT31" s="11" t="s">
-        <v>57</v>
+      <c r="AR31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT31" s="11">
+        <v>0</v>
       </c>
       <c r="AU31" s="11">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>58</v>
       </c>
@@ -4134,94 +4134,94 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>5</v>
+        <v>1057</v>
       </c>
       <c r="F32" s="13">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="G32" s="13">
-        <v>1057</v>
+        <v>310</v>
       </c>
       <c r="H32" s="13">
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="I32" s="13">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="J32" s="13">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="K32" s="13">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="L32" s="13">
-        <v>282</v>
+        <v>377</v>
       </c>
       <c r="M32" s="13">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N32" s="13">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="O32" s="13">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="P32" s="13">
-        <v>367</v>
+        <v>238</v>
       </c>
       <c r="Q32" s="13">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="R32" s="13">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="S32" s="13">
-        <v>71</v>
-      </c>
-      <c r="T32" s="13">
-        <v>88</v>
+        <v>4</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U32" s="13">
-        <v>4</v>
-      </c>
-      <c r="V32" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="V32" s="13">
+        <v>0</v>
       </c>
       <c r="W32" s="13">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="X32" s="13">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="Y32" s="13">
-        <v>461</v>
+        <v>338</v>
       </c>
       <c r="Z32" s="13">
-        <v>738</v>
+        <v>936</v>
       </c>
       <c r="AA32" s="13">
-        <v>338</v>
+        <v>766</v>
       </c>
       <c r="AB32" s="13">
-        <v>936</v>
+        <v>910</v>
       </c>
       <c r="AC32" s="13">
-        <v>766</v>
+        <v>423</v>
       </c>
       <c r="AD32" s="13">
-        <v>910</v>
+        <v>730</v>
       </c>
       <c r="AE32" s="13">
-        <v>423</v>
+        <v>716</v>
       </c>
       <c r="AF32" s="13">
-        <v>730</v>
+        <v>652</v>
       </c>
       <c r="AG32" s="13">
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="13">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="13">
         <v>0</v>
@@ -4250,11 +4250,11 @@
       <c r="AQ32" s="13">
         <v>0</v>
       </c>
-      <c r="AR32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="13">
-        <v>0</v>
+      <c r="AR32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT32" s="13" t="s">
         <v>57</v>
@@ -4284,7 +4284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
@@ -4299,25 +4299,25 @@
         <v>0</v>
       </c>
       <c r="G33" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33" s="11">
         <v>0</v>
       </c>
       <c r="I33" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J33" s="11">
         <v>0</v>
       </c>
       <c r="K33" s="11">
-        <v>0</v>
+        <v>2029</v>
       </c>
       <c r="L33" s="11">
         <v>0</v>
       </c>
       <c r="M33" s="11">
-        <v>2029</v>
+        <v>0</v>
       </c>
       <c r="N33" s="11">
         <v>0</v>
@@ -4329,58 +4329,58 @@
         <v>0</v>
       </c>
       <c r="Q33" s="11">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R33" s="11">
         <v>0</v>
       </c>
       <c r="S33" s="11">
-        <v>53</v>
-      </c>
-      <c r="T33" s="11">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U33" s="11">
-        <v>255</v>
-      </c>
-      <c r="V33" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="V33" s="11">
+        <v>0</v>
       </c>
       <c r="W33" s="11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X33" s="11">
         <v>0</v>
       </c>
       <c r="Y33" s="11">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Z33" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA33" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="11">
+        <v>105</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>105</v>
+      </c>
+      <c r="AD33" s="11">
+        <v>28</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>752</v>
+      </c>
+      <c r="AF33" s="11">
         <v>2</v>
       </c>
-      <c r="AC33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="11">
-        <v>105</v>
-      </c>
-      <c r="AE33" s="11">
-        <v>105</v>
-      </c>
-      <c r="AF33" s="11">
-        <v>28</v>
-      </c>
       <c r="AG33" s="11">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="11">
         <v>0</v>
@@ -4409,11 +4409,11 @@
       <c r="AQ33" s="11">
         <v>0</v>
       </c>
-      <c r="AR33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="11">
-        <v>0</v>
+      <c r="AR33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT33" s="11" t="s">
         <v>57</v>
@@ -4443,7 +4443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>60</v>
       </c>
@@ -4452,128 +4452,128 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>12858</v>
+        <v>11989</v>
       </c>
       <c r="F34" s="13">
-        <v>7946</v>
+        <v>20951</v>
       </c>
       <c r="G34" s="13">
-        <v>11989</v>
+        <v>19122</v>
       </c>
       <c r="H34" s="13">
-        <v>20951</v>
+        <v>5533</v>
       </c>
       <c r="I34" s="13">
-        <v>19122</v>
+        <v>15233</v>
       </c>
       <c r="J34" s="13">
-        <v>5533</v>
+        <v>10259</v>
       </c>
       <c r="K34" s="13">
-        <v>15233</v>
+        <v>13066</v>
       </c>
       <c r="L34" s="13">
-        <v>10259</v>
+        <v>15384</v>
       </c>
       <c r="M34" s="13">
-        <v>13066</v>
+        <v>13714</v>
       </c>
       <c r="N34" s="13">
-        <v>15384</v>
+        <v>13244</v>
       </c>
       <c r="O34" s="13">
-        <v>13714</v>
+        <v>15920</v>
       </c>
       <c r="P34" s="13">
-        <v>13244</v>
+        <v>18196</v>
       </c>
       <c r="Q34" s="13">
-        <v>15920</v>
+        <v>14015</v>
       </c>
       <c r="R34" s="13">
-        <v>18196</v>
+        <v>13077</v>
       </c>
       <c r="S34" s="13">
-        <v>14015</v>
+        <v>8029</v>
       </c>
       <c r="T34" s="13">
-        <v>13077</v>
+        <v>2096</v>
       </c>
       <c r="U34" s="13">
-        <v>8029</v>
+        <v>15529</v>
       </c>
       <c r="V34" s="13">
-        <v>2096</v>
+        <v>15332</v>
       </c>
       <c r="W34" s="13">
-        <v>15529</v>
+        <v>15947</v>
       </c>
       <c r="X34" s="13">
-        <v>15332</v>
+        <v>8879</v>
       </c>
       <c r="Y34" s="13">
-        <v>15947</v>
+        <v>8833</v>
       </c>
       <c r="Z34" s="13">
-        <v>8879</v>
+        <v>10972</v>
       </c>
       <c r="AA34" s="13">
-        <v>8833</v>
+        <v>5361</v>
       </c>
       <c r="AB34" s="13">
-        <v>10972</v>
+        <v>6724</v>
       </c>
       <c r="AC34" s="13">
-        <v>5361</v>
+        <v>4527</v>
       </c>
       <c r="AD34" s="13">
-        <v>6724</v>
+        <v>4740</v>
       </c>
       <c r="AE34" s="13">
-        <v>4527</v>
+        <v>7310</v>
       </c>
       <c r="AF34" s="13">
-        <v>4740</v>
+        <v>4239</v>
       </c>
       <c r="AG34" s="13">
-        <v>7310</v>
+        <v>6152</v>
       </c>
       <c r="AH34" s="13">
-        <v>4239</v>
+        <v>8241</v>
       </c>
       <c r="AI34" s="13">
-        <v>6152</v>
+        <v>9635</v>
       </c>
       <c r="AJ34" s="13">
-        <v>8241</v>
+        <v>8783</v>
       </c>
       <c r="AK34" s="13">
-        <v>9635</v>
+        <v>7609</v>
       </c>
       <c r="AL34" s="13">
-        <v>8783</v>
+        <v>8167</v>
       </c>
       <c r="AM34" s="13">
-        <v>7609</v>
+        <v>10271</v>
       </c>
       <c r="AN34" s="13">
-        <v>8167</v>
+        <v>13374</v>
       </c>
       <c r="AO34" s="13">
-        <v>10271</v>
+        <v>10131</v>
       </c>
       <c r="AP34" s="13">
-        <v>13374</v>
+        <v>10171</v>
       </c>
       <c r="AQ34" s="13">
-        <v>10131</v>
-      </c>
-      <c r="AR34" s="13">
-        <v>10171</v>
-      </c>
-      <c r="AS34" s="13">
         <v>15378</v>
       </c>
+      <c r="AR34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS34" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT34" s="13" t="s">
         <v>57</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>61</v>
       </c>
@@ -4611,65 +4611,65 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>628</v>
+        <v>96</v>
       </c>
       <c r="F35" s="11">
-        <v>752</v>
+        <v>172</v>
       </c>
       <c r="G35" s="11">
-        <v>96</v>
+        <v>451</v>
       </c>
       <c r="H35" s="11">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I35" s="11">
-        <v>451</v>
+        <v>580</v>
       </c>
       <c r="J35" s="11">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K35" s="11">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="L35" s="11">
-        <v>29</v>
+        <v>562</v>
       </c>
       <c r="M35" s="11">
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="N35" s="11">
-        <v>562</v>
+        <v>1219</v>
       </c>
       <c r="O35" s="11">
-        <v>1270</v>
+        <v>396</v>
       </c>
       <c r="P35" s="11">
-        <v>1219</v>
+        <v>1475</v>
       </c>
       <c r="Q35" s="11">
-        <v>396</v>
+        <v>1144</v>
       </c>
       <c r="R35" s="11">
-        <v>1475</v>
+        <v>574</v>
       </c>
       <c r="S35" s="11">
-        <v>1144</v>
+        <v>1470</v>
       </c>
       <c r="T35" s="11">
-        <v>574</v>
+        <v>87</v>
       </c>
       <c r="U35" s="11">
-        <v>1470</v>
+        <v>2361</v>
       </c>
       <c r="V35" s="11">
-        <v>87</v>
-      </c>
-      <c r="W35" s="11">
-        <v>2361</v>
-      </c>
-      <c r="X35" s="11">
         <v>1341</v>
       </c>
+      <c r="W35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X35" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y35" s="11" t="s">
         <v>57</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>62</v>
       </c>
@@ -4886,41 +4886,41 @@
       <c r="AQ36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS36" s="13" t="s">
-        <v>57</v>
+      <c r="AR36" s="13">
+        <v>3305</v>
+      </c>
+      <c r="AS36" s="13">
+        <v>9155</v>
       </c>
       <c r="AT36" s="13">
-        <v>2992</v>
+        <v>11879</v>
       </c>
       <c r="AU36" s="13">
-        <v>9155</v>
+        <v>11243</v>
       </c>
       <c r="AV36" s="13">
-        <v>11879</v>
+        <v>10726</v>
       </c>
       <c r="AW36" s="13">
-        <v>11243</v>
+        <v>14693</v>
       </c>
       <c r="AX36" s="13">
-        <v>10726</v>
+        <v>9840</v>
       </c>
       <c r="AY36" s="13">
-        <v>14693</v>
+        <v>12738</v>
       </c>
       <c r="AZ36" s="13">
-        <v>9840</v>
+        <v>10342</v>
       </c>
       <c r="BA36" s="13">
-        <v>12738</v>
+        <v>10057</v>
       </c>
       <c r="BB36" s="13">
-        <v>10342</v>
+        <v>11193</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>63</v>
       </c>
@@ -5009,14 +5009,14 @@
       <c r="AE37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF37" s="11" t="s">
-        <v>57</v>
+      <c r="AF37" s="11">
+        <v>0</v>
       </c>
       <c r="AG37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH37" s="11">
-        <v>0</v>
+      <c r="AH37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI37" s="11" t="s">
         <v>57</v>
@@ -5079,7 +5079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>64</v>
       </c>
@@ -5201,14 +5201,14 @@
       <c r="AP38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="13">
-        <v>0</v>
+      <c r="AQ38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT38" s="13" t="s">
         <v>57</v>
@@ -5238,7 +5238,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>66</v>
       </c>
@@ -5363,41 +5363,41 @@
       <c r="AQ39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS39" s="11" t="s">
-        <v>57</v>
+      <c r="AR39" s="11">
+        <v>451</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>777</v>
       </c>
       <c r="AT39" s="11">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="AU39" s="11">
-        <v>777</v>
+        <v>985</v>
       </c>
       <c r="AV39" s="11">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="AW39" s="11">
-        <v>985</v>
+        <v>952</v>
       </c>
       <c r="AX39" s="11">
-        <v>468</v>
+        <v>1338</v>
       </c>
       <c r="AY39" s="11">
-        <v>952</v>
+        <v>788</v>
       </c>
       <c r="AZ39" s="11">
-        <v>1338</v>
+        <v>1227</v>
       </c>
       <c r="BA39" s="11">
-        <v>788</v>
+        <v>691</v>
       </c>
       <c r="BB39" s="11">
-        <v>1227</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>67</v>
       </c>
@@ -5495,11 +5495,11 @@
       <c r="AH40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ40" s="13" t="s">
-        <v>57</v>
+      <c r="AI40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>0</v>
       </c>
       <c r="AK40" s="13">
         <v>0</v>
@@ -5523,40 +5523,40 @@
         <v>0</v>
       </c>
       <c r="AR40" s="13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AS40" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT40" s="13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AU40" s="13">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="AV40" s="13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW40" s="13">
-        <v>168</v>
+        <v>348</v>
       </c>
       <c r="AX40" s="13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="13">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="13">
         <v>0</v>
       </c>
       <c r="BA40" s="13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BB40" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>68</v>
       </c>
@@ -5613,7 +5613,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>61</v>
       </c>
@@ -5675,104 +5675,104 @@
       <c r="V42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X42" s="11" t="s">
-        <v>57</v>
+      <c r="W42" s="11">
+        <v>1040</v>
+      </c>
+      <c r="X42" s="11">
+        <v>1588</v>
       </c>
       <c r="Y42" s="11">
-        <v>1040</v>
+        <v>1281</v>
       </c>
       <c r="Z42" s="11">
-        <v>1588</v>
+        <v>677</v>
       </c>
       <c r="AA42" s="11">
-        <v>1281</v>
+        <v>936</v>
       </c>
       <c r="AB42" s="11">
-        <v>677</v>
+        <v>785</v>
       </c>
       <c r="AC42" s="11">
-        <v>936</v>
+        <v>1049</v>
       </c>
       <c r="AD42" s="11">
-        <v>785</v>
+        <v>1710</v>
       </c>
       <c r="AE42" s="11">
         <v>1049</v>
       </c>
       <c r="AF42" s="11">
-        <v>1710</v>
+        <v>821</v>
       </c>
       <c r="AG42" s="11">
-        <v>1049</v>
+        <v>1420</v>
       </c>
       <c r="AH42" s="11">
-        <v>821</v>
+        <v>1181</v>
       </c>
       <c r="AI42" s="11">
-        <v>1420</v>
+        <v>1897</v>
       </c>
       <c r="AJ42" s="11">
-        <v>1181</v>
+        <v>1222</v>
       </c>
       <c r="AK42" s="11">
-        <v>1897</v>
+        <v>628</v>
       </c>
       <c r="AL42" s="11">
-        <v>1222</v>
+        <v>1002</v>
       </c>
       <c r="AM42" s="11">
-        <v>628</v>
+        <v>1762</v>
       </c>
       <c r="AN42" s="11">
-        <v>1002</v>
+        <v>1754</v>
       </c>
       <c r="AO42" s="11">
-        <v>1762</v>
+        <v>1283</v>
       </c>
       <c r="AP42" s="11">
-        <v>1754</v>
+        <v>1064</v>
       </c>
       <c r="AQ42" s="11">
-        <v>1283</v>
+        <v>1971</v>
       </c>
       <c r="AR42" s="11">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="AS42" s="11">
-        <v>1971</v>
+        <v>2119</v>
       </c>
       <c r="AT42" s="11">
-        <v>594</v>
+        <v>1715</v>
       </c>
       <c r="AU42" s="11">
-        <v>2119</v>
+        <v>1676</v>
       </c>
       <c r="AV42" s="11">
-        <v>1715</v>
+        <v>1533</v>
       </c>
       <c r="AW42" s="11">
-        <v>1623</v>
+        <v>1361</v>
       </c>
       <c r="AX42" s="11">
-        <v>1533</v>
+        <v>1444</v>
       </c>
       <c r="AY42" s="11">
-        <v>1361</v>
+        <v>2148</v>
       </c>
       <c r="AZ42" s="11">
-        <v>1444</v>
+        <v>1248</v>
       </c>
       <c r="BA42" s="11">
-        <v>2148</v>
+        <v>1646</v>
       </c>
       <c r="BB42" s="11">
-        <v>1248</v>
+        <v>1778</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>69</v>
       </c>
@@ -5832,104 +5832,104 @@
       <c r="V43" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X43" s="15" t="s">
-        <v>57</v>
+      <c r="W43" s="15">
+        <v>1040</v>
+      </c>
+      <c r="X43" s="15">
+        <v>1588</v>
       </c>
       <c r="Y43" s="15">
-        <v>1040</v>
+        <v>1281</v>
       </c>
       <c r="Z43" s="15">
-        <v>1588</v>
+        <v>677</v>
       </c>
       <c r="AA43" s="15">
-        <v>1281</v>
+        <v>936</v>
       </c>
       <c r="AB43" s="15">
-        <v>677</v>
+        <v>785</v>
       </c>
       <c r="AC43" s="15">
-        <v>936</v>
+        <v>1049</v>
       </c>
       <c r="AD43" s="15">
-        <v>785</v>
+        <v>1710</v>
       </c>
       <c r="AE43" s="15">
         <v>1049</v>
       </c>
       <c r="AF43" s="15">
-        <v>1710</v>
+        <v>821</v>
       </c>
       <c r="AG43" s="15">
-        <v>1049</v>
+        <v>1420</v>
       </c>
       <c r="AH43" s="15">
-        <v>821</v>
+        <v>1181</v>
       </c>
       <c r="AI43" s="15">
-        <v>1420</v>
+        <v>1897</v>
       </c>
       <c r="AJ43" s="15">
-        <v>1181</v>
+        <v>1222</v>
       </c>
       <c r="AK43" s="15">
-        <v>1897</v>
+        <v>628</v>
       </c>
       <c r="AL43" s="15">
-        <v>1222</v>
+        <v>1002</v>
       </c>
       <c r="AM43" s="15">
-        <v>628</v>
+        <v>1762</v>
       </c>
       <c r="AN43" s="15">
-        <v>1002</v>
+        <v>1754</v>
       </c>
       <c r="AO43" s="15">
-        <v>1762</v>
+        <v>1283</v>
       </c>
       <c r="AP43" s="15">
-        <v>1754</v>
+        <v>1064</v>
       </c>
       <c r="AQ43" s="15">
-        <v>1283</v>
+        <v>1971</v>
       </c>
       <c r="AR43" s="15">
-        <v>1064</v>
+        <v>573</v>
       </c>
       <c r="AS43" s="15">
-        <v>1971</v>
+        <v>2119</v>
       </c>
       <c r="AT43" s="15">
-        <v>594</v>
+        <v>1715</v>
       </c>
       <c r="AU43" s="15">
-        <v>2119</v>
+        <v>1676</v>
       </c>
       <c r="AV43" s="15">
-        <v>1715</v>
+        <v>1533</v>
       </c>
       <c r="AW43" s="15">
-        <v>1623</v>
+        <v>1361</v>
       </c>
       <c r="AX43" s="15">
-        <v>1533</v>
+        <v>1444</v>
       </c>
       <c r="AY43" s="15">
-        <v>1361</v>
+        <v>2148</v>
       </c>
       <c r="AZ43" s="15">
-        <v>1444</v>
+        <v>1248</v>
       </c>
       <c r="BA43" s="15">
-        <v>2148</v>
+        <v>1646</v>
       </c>
       <c r="BB43" s="15">
-        <v>1248</v>
+        <v>1778</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>72</v>
       </c>
@@ -5986,7 +5986,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>60</v>
       </c>
@@ -6048,75 +6048,75 @@
       <c r="V45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>57</v>
+      <c r="W45" s="11">
+        <v>-46</v>
+      </c>
+      <c r="X45" s="11">
+        <v>-15</v>
       </c>
       <c r="Y45" s="11">
-        <v>-46</v>
+        <v>-7</v>
       </c>
       <c r="Z45" s="11">
+        <v>-6</v>
+      </c>
+      <c r="AA45" s="11">
         <v>-15</v>
       </c>
-      <c r="AA45" s="11">
-        <v>-7</v>
-      </c>
       <c r="AB45" s="11">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AC45" s="11">
+        <v>-17</v>
+      </c>
+      <c r="AD45" s="11">
+        <v>-40</v>
+      </c>
+      <c r="AE45" s="11">
+        <v>-18</v>
+      </c>
+      <c r="AF45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG45" s="11">
+        <v>-27</v>
+      </c>
+      <c r="AH45" s="11">
+        <v>-23</v>
+      </c>
+      <c r="AI45" s="11">
+        <v>-80</v>
+      </c>
+      <c r="AJ45" s="11">
+        <v>-101</v>
+      </c>
+      <c r="AK45" s="11">
+        <v>-23</v>
+      </c>
+      <c r="AL45" s="11">
         <v>-15</v>
       </c>
-      <c r="AD45" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AE45" s="11">
-        <v>-17</v>
-      </c>
-      <c r="AF45" s="11">
-        <v>-40</v>
-      </c>
-      <c r="AG45" s="11">
-        <v>-18</v>
-      </c>
-      <c r="AH45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI45" s="11">
-        <v>-27</v>
-      </c>
-      <c r="AJ45" s="11">
-        <v>-23</v>
-      </c>
-      <c r="AK45" s="11">
-        <v>-80</v>
-      </c>
-      <c r="AL45" s="11">
-        <v>-101</v>
-      </c>
       <c r="AM45" s="11">
-        <v>-23</v>
+        <v>-28</v>
       </c>
       <c r="AN45" s="11">
-        <v>-15</v>
+        <v>-55</v>
       </c>
       <c r="AO45" s="11">
-        <v>-28</v>
+        <v>-35</v>
       </c>
       <c r="AP45" s="11">
-        <v>-55</v>
+        <v>-30</v>
       </c>
       <c r="AQ45" s="11">
-        <v>-35</v>
-      </c>
-      <c r="AR45" s="11">
-        <v>-30</v>
-      </c>
-      <c r="AS45" s="11">
         <v>-78</v>
       </c>
+      <c r="AR45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS45" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT45" s="11" t="s">
         <v>57</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>62</v>
       </c>
@@ -6277,34 +6277,34 @@
         <v>57</v>
       </c>
       <c r="AT46" s="13">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AU46" s="13">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="AV46" s="13">
-        <v>-20</v>
+        <v>-114</v>
       </c>
       <c r="AW46" s="13">
-        <v>-24</v>
+        <v>-16</v>
       </c>
       <c r="AX46" s="13">
-        <v>-114</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="13">
-        <v>-16</v>
+        <v>-36</v>
       </c>
       <c r="AZ46" s="13">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="BA46" s="13">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="BB46" s="13">
-        <v>-5</v>
+        <v>-68</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>73</v>
       </c>
@@ -6364,261 +6364,261 @@
       <c r="V47" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X47" s="17" t="s">
-        <v>57</v>
+      <c r="W47" s="17">
+        <v>-46</v>
+      </c>
+      <c r="X47" s="17">
+        <v>-15</v>
       </c>
       <c r="Y47" s="17">
-        <v>-46</v>
+        <v>-7</v>
       </c>
       <c r="Z47" s="17">
+        <v>-6</v>
+      </c>
+      <c r="AA47" s="17">
         <v>-15</v>
       </c>
-      <c r="AA47" s="17">
-        <v>-7</v>
-      </c>
       <c r="AB47" s="17">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AC47" s="17">
+        <v>-17</v>
+      </c>
+      <c r="AD47" s="17">
+        <v>-40</v>
+      </c>
+      <c r="AE47" s="17">
+        <v>-18</v>
+      </c>
+      <c r="AF47" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="17">
+        <v>-27</v>
+      </c>
+      <c r="AH47" s="17">
+        <v>-23</v>
+      </c>
+      <c r="AI47" s="17">
+        <v>-80</v>
+      </c>
+      <c r="AJ47" s="17">
+        <v>-101</v>
+      </c>
+      <c r="AK47" s="17">
+        <v>-23</v>
+      </c>
+      <c r="AL47" s="17">
         <v>-15</v>
       </c>
-      <c r="AD47" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AE47" s="17">
-        <v>-17</v>
-      </c>
-      <c r="AF47" s="17">
-        <v>-40</v>
-      </c>
-      <c r="AG47" s="17">
-        <v>-18</v>
-      </c>
-      <c r="AH47" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="17">
-        <v>-27</v>
-      </c>
-      <c r="AJ47" s="17">
-        <v>-23</v>
-      </c>
-      <c r="AK47" s="17">
-        <v>-80</v>
-      </c>
-      <c r="AL47" s="17">
-        <v>-101</v>
-      </c>
       <c r="AM47" s="17">
-        <v>-23</v>
+        <v>-28</v>
       </c>
       <c r="AN47" s="17">
-        <v>-15</v>
+        <v>-55</v>
       </c>
       <c r="AO47" s="17">
-        <v>-28</v>
+        <v>-35</v>
       </c>
       <c r="AP47" s="17">
-        <v>-55</v>
+        <v>-30</v>
       </c>
       <c r="AQ47" s="17">
-        <v>-35</v>
+        <v>-78</v>
       </c>
       <c r="AR47" s="17">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="AS47" s="17">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="17">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AU47" s="17">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="AV47" s="17">
-        <v>-20</v>
+        <v>-114</v>
       </c>
       <c r="AW47" s="17">
-        <v>-24</v>
+        <v>-16</v>
       </c>
       <c r="AX47" s="17">
-        <v>-114</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="17">
-        <v>-16</v>
+        <v>-36</v>
       </c>
       <c r="AZ47" s="17">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="BA47" s="17">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="17">
-        <v>-5</v>
+        <v>-68</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
-        <v>13491</v>
+        <v>13142</v>
       </c>
       <c r="F48" s="15">
-        <v>8698</v>
+        <v>22013</v>
       </c>
       <c r="G48" s="15">
-        <v>13142</v>
+        <v>19888</v>
       </c>
       <c r="H48" s="15">
-        <v>22013</v>
+        <v>5559</v>
       </c>
       <c r="I48" s="15">
-        <v>19888</v>
+        <v>16010</v>
       </c>
       <c r="J48" s="15">
-        <v>5559</v>
+        <v>10570</v>
       </c>
       <c r="K48" s="15">
-        <v>16010</v>
+        <v>15349</v>
       </c>
       <c r="L48" s="15">
-        <v>10570</v>
+        <v>16323</v>
       </c>
       <c r="M48" s="15">
-        <v>15349</v>
+        <v>15232</v>
       </c>
       <c r="N48" s="15">
-        <v>16323</v>
+        <v>14830</v>
       </c>
       <c r="O48" s="15">
-        <v>15232</v>
+        <v>16504</v>
       </c>
       <c r="P48" s="15">
-        <v>14830</v>
+        <v>19909</v>
       </c>
       <c r="Q48" s="15">
-        <v>16504</v>
+        <v>15283</v>
       </c>
       <c r="R48" s="15">
-        <v>19909</v>
+        <v>13739</v>
       </c>
       <c r="S48" s="15">
-        <v>15283</v>
+        <v>9758</v>
       </c>
       <c r="T48" s="15">
-        <v>13739</v>
+        <v>2183</v>
       </c>
       <c r="U48" s="15">
-        <v>9758</v>
+        <v>17890</v>
       </c>
       <c r="V48" s="15">
-        <v>2183</v>
+        <v>16673</v>
       </c>
       <c r="W48" s="15">
-        <v>17890</v>
+        <v>17416</v>
       </c>
       <c r="X48" s="15">
-        <v>16673</v>
+        <v>11190</v>
       </c>
       <c r="Y48" s="15">
-        <v>17416</v>
+        <v>10446</v>
       </c>
       <c r="Z48" s="15">
-        <v>11190</v>
+        <v>12581</v>
       </c>
       <c r="AA48" s="15">
-        <v>10446</v>
+        <v>7048</v>
       </c>
       <c r="AB48" s="15">
-        <v>12581</v>
+        <v>8523</v>
       </c>
       <c r="AC48" s="15">
-        <v>7048</v>
+        <v>6087</v>
       </c>
       <c r="AD48" s="15">
-        <v>8523</v>
+        <v>7168</v>
       </c>
       <c r="AE48" s="15">
-        <v>6087</v>
+        <v>9809</v>
       </c>
       <c r="AF48" s="15">
-        <v>7168</v>
+        <v>5714</v>
       </c>
       <c r="AG48" s="15">
-        <v>9809</v>
+        <v>8449</v>
       </c>
       <c r="AH48" s="15">
-        <v>5714</v>
+        <v>10015</v>
       </c>
       <c r="AI48" s="15">
-        <v>8449</v>
+        <v>12638</v>
       </c>
       <c r="AJ48" s="15">
-        <v>10015</v>
+        <v>11353</v>
       </c>
       <c r="AK48" s="15">
-        <v>12638</v>
+        <v>8578</v>
       </c>
       <c r="AL48" s="15">
-        <v>11353</v>
+        <v>10178</v>
       </c>
       <c r="AM48" s="15">
-        <v>8578</v>
+        <v>13397</v>
       </c>
       <c r="AN48" s="15">
-        <v>10178</v>
+        <v>17256</v>
       </c>
       <c r="AO48" s="15">
-        <v>13397</v>
+        <v>12158</v>
       </c>
       <c r="AP48" s="15">
-        <v>17256</v>
+        <v>12437</v>
       </c>
       <c r="AQ48" s="15">
-        <v>12158</v>
+        <v>17693</v>
       </c>
       <c r="AR48" s="15">
-        <v>11373</v>
+        <v>4346</v>
       </c>
       <c r="AS48" s="15">
-        <v>17693</v>
+        <v>12062</v>
       </c>
       <c r="AT48" s="15">
-        <v>4053</v>
+        <v>14013</v>
       </c>
       <c r="AU48" s="15">
-        <v>12062</v>
+        <v>14048</v>
       </c>
       <c r="AV48" s="15">
-        <v>14007</v>
+        <v>12637</v>
       </c>
       <c r="AW48" s="15">
-        <v>13995</v>
+        <v>17338</v>
       </c>
       <c r="AX48" s="15">
-        <v>12637</v>
+        <v>12622</v>
       </c>
       <c r="AY48" s="15">
-        <v>17338</v>
+        <v>15638</v>
       </c>
       <c r="AZ48" s="15">
-        <v>12622</v>
+        <v>12812</v>
       </c>
       <c r="BA48" s="15">
-        <v>15638</v>
+        <v>12417</v>
       </c>
       <c r="BB48" s="15">
-        <v>12812</v>
+        <v>13153</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6673,7 +6673,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6728,7 +6728,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6783,7 +6783,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>74</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6995,7 +6995,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>74</v>
       </c>
@@ -7052,7 +7052,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>55</v>
       </c>
@@ -7144,47 +7144,47 @@
       <c r="AF55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH55" s="11" t="s">
-        <v>57</v>
+      <c r="AG55" s="11">
+        <v>181748</v>
+      </c>
+      <c r="AH55" s="11">
+        <v>129331</v>
       </c>
       <c r="AI55" s="11">
-        <v>181748</v>
+        <v>252852</v>
       </c>
       <c r="AJ55" s="11">
-        <v>129331</v>
+        <v>323395</v>
       </c>
       <c r="AK55" s="11">
-        <v>252852</v>
+        <v>81984</v>
       </c>
       <c r="AL55" s="11">
-        <v>323395</v>
+        <v>240467</v>
       </c>
       <c r="AM55" s="11">
-        <v>81984</v>
+        <v>329293</v>
       </c>
       <c r="AN55" s="11">
-        <v>240467</v>
+        <v>515244</v>
       </c>
       <c r="AO55" s="11">
-        <v>329293</v>
+        <v>177671</v>
       </c>
       <c r="AP55" s="11">
-        <v>515244</v>
+        <v>259966</v>
       </c>
       <c r="AQ55" s="11">
-        <v>177671</v>
-      </c>
-      <c r="AR55" s="11">
-        <v>259966</v>
-      </c>
-      <c r="AS55" s="11">
         <v>86453</v>
       </c>
-      <c r="AT55" s="11" t="s">
-        <v>57</v>
+      <c r="AR55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT55" s="11">
+        <v>0</v>
       </c>
       <c r="AU55" s="11">
         <v>0</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>58</v>
       </c>
@@ -7220,94 +7220,94 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>210</v>
+        <v>50660</v>
       </c>
       <c r="F56" s="13">
-        <v>0</v>
+        <v>45423</v>
       </c>
       <c r="G56" s="13">
-        <v>50660</v>
+        <v>16312</v>
       </c>
       <c r="H56" s="13">
-        <v>45423</v>
+        <v>0</v>
       </c>
       <c r="I56" s="13">
-        <v>16312</v>
+        <v>13679</v>
       </c>
       <c r="J56" s="13">
-        <v>0</v>
+        <v>19633</v>
       </c>
       <c r="K56" s="13">
-        <v>13679</v>
+        <v>16234</v>
       </c>
       <c r="L56" s="13">
-        <v>19633</v>
+        <v>22378</v>
       </c>
       <c r="M56" s="13">
-        <v>16234</v>
+        <v>14044</v>
       </c>
       <c r="N56" s="13">
-        <v>22378</v>
+        <v>20053</v>
       </c>
       <c r="O56" s="13">
-        <v>14044</v>
+        <v>10095</v>
       </c>
       <c r="P56" s="13">
-        <v>20053</v>
+        <v>13898</v>
       </c>
       <c r="Q56" s="13">
-        <v>10095</v>
+        <v>4211</v>
       </c>
       <c r="R56" s="13">
-        <v>13898</v>
+        <v>5617</v>
       </c>
       <c r="S56" s="13">
-        <v>4211</v>
-      </c>
-      <c r="T56" s="13">
-        <v>5617</v>
+        <v>231</v>
+      </c>
+      <c r="T56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U56" s="13">
-        <v>231</v>
-      </c>
-      <c r="V56" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="V56" s="13">
+        <v>0</v>
       </c>
       <c r="W56" s="13">
-        <v>0</v>
+        <v>48573</v>
       </c>
       <c r="X56" s="13">
-        <v>0</v>
+        <v>86361</v>
       </c>
       <c r="Y56" s="13">
-        <v>48573</v>
+        <v>44748</v>
       </c>
       <c r="Z56" s="13">
-        <v>86361</v>
+        <v>177595</v>
       </c>
       <c r="AA56" s="13">
-        <v>44748</v>
+        <v>146143</v>
       </c>
       <c r="AB56" s="13">
-        <v>177595</v>
+        <v>146016</v>
       </c>
       <c r="AC56" s="13">
-        <v>146143</v>
+        <v>74759</v>
       </c>
       <c r="AD56" s="13">
-        <v>146016</v>
+        <v>140521</v>
       </c>
       <c r="AE56" s="13">
-        <v>74759</v>
+        <v>127076</v>
       </c>
       <c r="AF56" s="13">
-        <v>140521</v>
+        <v>131191</v>
       </c>
       <c r="AG56" s="13">
-        <v>127076</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="13">
-        <v>131191</v>
+        <v>0</v>
       </c>
       <c r="AI56" s="13">
         <v>0</v>
@@ -7336,11 +7336,11 @@
       <c r="AQ56" s="13">
         <v>0</v>
       </c>
-      <c r="AR56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS56" s="13">
-        <v>0</v>
+      <c r="AR56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT56" s="13" t="s">
         <v>57</v>
@@ -7370,7 +7370,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>59</v>
       </c>
@@ -7385,25 +7385,25 @@
         <v>0</v>
       </c>
       <c r="G57" s="11">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="H57" s="11">
         <v>0</v>
       </c>
       <c r="I57" s="11">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="J57" s="11">
         <v>0</v>
       </c>
       <c r="K57" s="11">
-        <v>0</v>
+        <v>102797</v>
       </c>
       <c r="L57" s="11">
         <v>0</v>
       </c>
       <c r="M57" s="11">
-        <v>102797</v>
+        <v>0</v>
       </c>
       <c r="N57" s="11">
         <v>0</v>
@@ -7415,58 +7415,58 @@
         <v>0</v>
       </c>
       <c r="Q57" s="11">
-        <v>0</v>
+        <v>2894</v>
       </c>
       <c r="R57" s="11">
         <v>0</v>
       </c>
       <c r="S57" s="11">
-        <v>2894</v>
-      </c>
-      <c r="T57" s="11">
-        <v>0</v>
+        <v>7356</v>
+      </c>
+      <c r="T57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U57" s="11">
-        <v>7356</v>
-      </c>
-      <c r="V57" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="V57" s="11">
+        <v>0</v>
       </c>
       <c r="W57" s="11">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="X57" s="11">
         <v>0</v>
       </c>
       <c r="Y57" s="11">
-        <v>787</v>
+        <v>77</v>
       </c>
       <c r="Z57" s="11">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="AA57" s="11">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="11">
-        <v>372</v>
+        <v>12614</v>
       </c>
       <c r="AC57" s="11">
-        <v>0</v>
+        <v>18310</v>
       </c>
       <c r="AD57" s="11">
-        <v>12614</v>
+        <v>5592</v>
       </c>
       <c r="AE57" s="11">
-        <v>18310</v>
+        <v>122614</v>
       </c>
       <c r="AF57" s="11">
-        <v>5592</v>
+        <v>431</v>
       </c>
       <c r="AG57" s="11">
-        <v>122614</v>
+        <v>0</v>
       </c>
       <c r="AH57" s="11">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="11">
         <v>0</v>
@@ -7495,11 +7495,11 @@
       <c r="AQ57" s="11">
         <v>0</v>
       </c>
-      <c r="AR57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS57" s="11">
-        <v>0</v>
+      <c r="AR57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT57" s="11" t="s">
         <v>57</v>
@@ -7529,7 +7529,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>60</v>
       </c>
@@ -7538,128 +7538,128 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>705653</v>
+        <v>602946</v>
       </c>
       <c r="F58" s="13">
-        <v>446010</v>
+        <v>1028758</v>
       </c>
       <c r="G58" s="13">
-        <v>602946</v>
+        <v>1046535</v>
       </c>
       <c r="H58" s="13">
-        <v>1028758</v>
+        <v>330809</v>
       </c>
       <c r="I58" s="13">
-        <v>1046535</v>
+        <v>949028</v>
       </c>
       <c r="J58" s="13">
-        <v>330809</v>
+        <v>665968</v>
       </c>
       <c r="K58" s="13">
-        <v>949028</v>
+        <v>800986</v>
       </c>
       <c r="L58" s="13">
-        <v>665968</v>
+        <v>922776</v>
       </c>
       <c r="M58" s="13">
-        <v>800986</v>
+        <v>858167</v>
       </c>
       <c r="N58" s="13">
-        <v>922776</v>
+        <v>781267</v>
       </c>
       <c r="O58" s="13">
-        <v>858167</v>
+        <v>914689</v>
       </c>
       <c r="P58" s="13">
-        <v>781267</v>
+        <v>1108229</v>
       </c>
       <c r="Q58" s="13">
-        <v>914689</v>
+        <v>900635</v>
       </c>
       <c r="R58" s="13">
-        <v>1108229</v>
+        <v>924733</v>
       </c>
       <c r="S58" s="13">
-        <v>900635</v>
+        <v>655619</v>
       </c>
       <c r="T58" s="13">
-        <v>924733</v>
+        <v>172057</v>
       </c>
       <c r="U58" s="13">
-        <v>655619</v>
+        <v>1291959</v>
       </c>
       <c r="V58" s="13">
-        <v>172057</v>
+        <v>1342908</v>
       </c>
       <c r="W58" s="13">
-        <v>1291959</v>
+        <v>1536406</v>
       </c>
       <c r="X58" s="13">
-        <v>1342908</v>
+        <v>1142384</v>
       </c>
       <c r="Y58" s="13">
-        <v>1536406</v>
+        <v>1354825</v>
       </c>
       <c r="Z58" s="13">
-        <v>1142384</v>
+        <v>2045298</v>
       </c>
       <c r="AA58" s="13">
-        <v>1354825</v>
+        <v>1034217</v>
       </c>
       <c r="AB58" s="13">
-        <v>2045298</v>
+        <v>1203851</v>
       </c>
       <c r="AC58" s="13">
-        <v>1034217</v>
+        <v>977956</v>
       </c>
       <c r="AD58" s="13">
-        <v>1203851</v>
+        <v>1008378</v>
       </c>
       <c r="AE58" s="13">
-        <v>977956</v>
+        <v>1585902</v>
       </c>
       <c r="AF58" s="13">
-        <v>1008378</v>
+        <v>914320</v>
       </c>
       <c r="AG58" s="13">
-        <v>1585902</v>
+        <v>1380153</v>
       </c>
       <c r="AH58" s="13">
-        <v>914320</v>
+        <v>1857204</v>
       </c>
       <c r="AI58" s="13">
-        <v>1380153</v>
+        <v>2131435</v>
       </c>
       <c r="AJ58" s="13">
-        <v>1857204</v>
+        <v>2043728</v>
       </c>
       <c r="AK58" s="13">
-        <v>2131435</v>
+        <v>1904366</v>
       </c>
       <c r="AL58" s="13">
-        <v>2043728</v>
+        <v>1997985</v>
       </c>
       <c r="AM58" s="13">
-        <v>1904366</v>
+        <v>2565504</v>
       </c>
       <c r="AN58" s="13">
-        <v>1997985</v>
+        <v>3211887</v>
       </c>
       <c r="AO58" s="13">
-        <v>2565504</v>
+        <v>2551658</v>
       </c>
       <c r="AP58" s="13">
-        <v>3211887</v>
+        <v>2336590</v>
       </c>
       <c r="AQ58" s="13">
-        <v>2551658</v>
-      </c>
-      <c r="AR58" s="13">
-        <v>2336579</v>
-      </c>
-      <c r="AS58" s="13">
         <v>3512440</v>
       </c>
+      <c r="AR58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS58" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT58" s="13" t="s">
         <v>57</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>61</v>
       </c>
@@ -7697,65 +7697,65 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>664</v>
+        <v>343</v>
       </c>
       <c r="F59" s="11">
-        <v>1730</v>
+        <v>184</v>
       </c>
       <c r="G59" s="11">
-        <v>343</v>
+        <v>56</v>
       </c>
       <c r="H59" s="11">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="I59" s="11">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="J59" s="11">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="K59" s="11">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="L59" s="11">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="M59" s="11">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="N59" s="11">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="O59" s="11">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="P59" s="11">
-        <v>222</v>
+        <v>365</v>
       </c>
       <c r="Q59" s="11">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="R59" s="11">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="S59" s="11">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="T59" s="11">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="U59" s="11">
-        <v>214</v>
+        <v>1693</v>
       </c>
       <c r="V59" s="11">
-        <v>13</v>
-      </c>
-      <c r="W59" s="11">
-        <v>1693</v>
-      </c>
-      <c r="X59" s="11">
         <v>399</v>
       </c>
+      <c r="W59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X59" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y59" s="11" t="s">
         <v>57</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>62</v>
       </c>
@@ -7972,41 +7972,41 @@
       <c r="AQ60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR60" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS60" s="13" t="s">
-        <v>57</v>
+      <c r="AR60" s="13">
+        <v>860849</v>
+      </c>
+      <c r="AS60" s="13">
+        <v>2401945</v>
       </c>
       <c r="AT60" s="13">
-        <v>761529</v>
+        <v>3018187</v>
       </c>
       <c r="AU60" s="13">
-        <v>2397497</v>
+        <v>2772317</v>
       </c>
       <c r="AV60" s="13">
-        <v>3018187</v>
+        <v>2447930</v>
       </c>
       <c r="AW60" s="13">
-        <v>2774002</v>
+        <v>3280495</v>
       </c>
       <c r="AX60" s="13">
-        <v>2447930</v>
+        <v>2285638</v>
       </c>
       <c r="AY60" s="13">
-        <v>3280496</v>
+        <v>2971413</v>
       </c>
       <c r="AZ60" s="13">
-        <v>2285638</v>
+        <v>2533594</v>
       </c>
       <c r="BA60" s="13">
-        <v>2971413</v>
+        <v>2573610</v>
       </c>
       <c r="BB60" s="13">
-        <v>2526921</v>
+        <v>3321029</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>63</v>
       </c>
@@ -8095,14 +8095,14 @@
       <c r="AE61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF61" s="11" t="s">
-        <v>57</v>
+      <c r="AF61" s="11">
+        <v>0</v>
       </c>
       <c r="AG61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH61" s="11">
-        <v>0</v>
+      <c r="AH61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI61" s="11" t="s">
         <v>57</v>
@@ -8165,7 +8165,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>64</v>
       </c>
@@ -8287,15 +8287,15 @@
       <c r="AP62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR62" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS62" s="13">
+      <c r="AQ62" s="13">
         <v>580957</v>
       </c>
+      <c r="AR62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS62" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT62" s="13" t="s">
         <v>57</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>66</v>
       </c>
@@ -8449,41 +8449,41 @@
       <c r="AQ63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS63" s="11" t="s">
-        <v>57</v>
+      <c r="AR63" s="11">
+        <v>96500</v>
+      </c>
+      <c r="AS63" s="11">
+        <v>173471</v>
       </c>
       <c r="AT63" s="11">
-        <v>96197</v>
+        <v>96967</v>
       </c>
       <c r="AU63" s="11">
-        <v>173471</v>
+        <v>226801</v>
       </c>
       <c r="AV63" s="11">
-        <v>96967</v>
+        <v>91503</v>
       </c>
       <c r="AW63" s="11">
-        <v>226801</v>
+        <v>179209</v>
       </c>
       <c r="AX63" s="11">
-        <v>91503</v>
+        <v>268703</v>
       </c>
       <c r="AY63" s="11">
-        <v>179209</v>
+        <v>167874</v>
       </c>
       <c r="AZ63" s="11">
-        <v>268703</v>
+        <v>263297</v>
       </c>
       <c r="BA63" s="11">
-        <v>167874</v>
+        <v>153887</v>
       </c>
       <c r="BB63" s="11">
-        <v>263297</v>
+        <v>62321</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>67</v>
       </c>
@@ -8581,11 +8581,11 @@
       <c r="AH64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI64" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ64" s="13" t="s">
-        <v>57</v>
+      <c r="AI64" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="13">
+        <v>0</v>
       </c>
       <c r="AK64" s="13">
         <v>0</v>
@@ -8609,40 +8609,40 @@
         <v>0</v>
       </c>
       <c r="AR64" s="13">
-        <v>0</v>
+        <v>3722</v>
       </c>
       <c r="AS64" s="13">
-        <v>0</v>
+        <v>2574</v>
       </c>
       <c r="AT64" s="13">
-        <v>3722</v>
+        <v>5027</v>
       </c>
       <c r="AU64" s="13">
-        <v>2574</v>
+        <v>41449</v>
       </c>
       <c r="AV64" s="13">
-        <v>5027</v>
+        <v>5910</v>
       </c>
       <c r="AW64" s="13">
-        <v>41449</v>
+        <v>71554</v>
       </c>
       <c r="AX64" s="13">
-        <v>5910</v>
+        <v>0</v>
       </c>
       <c r="AY64" s="13">
-        <v>71554</v>
+        <v>0</v>
       </c>
       <c r="AZ64" s="13">
         <v>0</v>
       </c>
       <c r="BA64" s="13">
-        <v>0</v>
+        <v>5028</v>
       </c>
       <c r="BB64" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>75</v>
       </c>
@@ -8699,7 +8699,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>61</v>
       </c>
@@ -8761,104 +8761,104 @@
       <c r="V66" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W66" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X66" s="11" t="s">
-        <v>57</v>
+      <c r="W66" s="11">
+        <v>1543</v>
+      </c>
+      <c r="X66" s="11">
+        <v>397</v>
       </c>
       <c r="Y66" s="11">
-        <v>1543</v>
+        <v>500</v>
       </c>
       <c r="Z66" s="11">
-        <v>397</v>
+        <v>169</v>
       </c>
       <c r="AA66" s="11">
-        <v>500</v>
+        <v>1179</v>
       </c>
       <c r="AB66" s="11">
-        <v>169</v>
+        <v>7775</v>
       </c>
       <c r="AC66" s="11">
-        <v>1179</v>
+        <v>3177</v>
       </c>
       <c r="AD66" s="11">
-        <v>7775</v>
+        <v>10685</v>
       </c>
       <c r="AE66" s="11">
-        <v>3177</v>
+        <v>7617</v>
       </c>
       <c r="AF66" s="11">
-        <v>10685</v>
+        <v>205</v>
       </c>
       <c r="AG66" s="11">
-        <v>7617</v>
+        <v>725</v>
       </c>
       <c r="AH66" s="11">
-        <v>205</v>
+        <v>402</v>
       </c>
       <c r="AI66" s="11">
-        <v>725</v>
+        <v>4499</v>
       </c>
       <c r="AJ66" s="11">
-        <v>402</v>
+        <v>2354</v>
       </c>
       <c r="AK66" s="11">
-        <v>4499</v>
+        <v>216</v>
       </c>
       <c r="AL66" s="11">
-        <v>2354</v>
+        <v>299</v>
       </c>
       <c r="AM66" s="11">
-        <v>216</v>
+        <v>524</v>
       </c>
       <c r="AN66" s="11">
-        <v>299</v>
+        <v>5714</v>
       </c>
       <c r="AO66" s="11">
-        <v>524</v>
+        <v>382</v>
       </c>
       <c r="AP66" s="11">
-        <v>5714</v>
+        <v>3516</v>
       </c>
       <c r="AQ66" s="11">
-        <v>382</v>
+        <v>588</v>
       </c>
       <c r="AR66" s="11">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="AS66" s="11">
-        <v>588</v>
+        <v>7734</v>
       </c>
       <c r="AT66" s="11">
-        <v>649</v>
+        <v>5796</v>
       </c>
       <c r="AU66" s="11">
-        <v>7734</v>
+        <v>1127</v>
       </c>
       <c r="AV66" s="11">
-        <v>5796</v>
+        <v>613</v>
       </c>
       <c r="AW66" s="11">
-        <v>1137</v>
+        <v>6187</v>
       </c>
       <c r="AX66" s="11">
-        <v>613</v>
+        <v>4110</v>
       </c>
       <c r="AY66" s="11">
-        <v>6187</v>
+        <v>6201</v>
       </c>
       <c r="AZ66" s="11">
-        <v>4110</v>
+        <v>3220</v>
       </c>
       <c r="BA66" s="11">
-        <v>6201</v>
+        <v>7407</v>
       </c>
       <c r="BB66" s="11">
-        <v>3220</v>
+        <v>4568</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>69</v>
       </c>
@@ -8920,104 +8920,104 @@
       <c r="V67" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W67" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X67" s="15" t="s">
-        <v>57</v>
+      <c r="W67" s="15">
+        <v>1543</v>
+      </c>
+      <c r="X67" s="15">
+        <v>397</v>
       </c>
       <c r="Y67" s="15">
-        <v>1543</v>
+        <v>500</v>
       </c>
       <c r="Z67" s="15">
-        <v>397</v>
+        <v>169</v>
       </c>
       <c r="AA67" s="15">
-        <v>500</v>
+        <v>1179</v>
       </c>
       <c r="AB67" s="15">
-        <v>169</v>
+        <v>7775</v>
       </c>
       <c r="AC67" s="15">
-        <v>1179</v>
+        <v>3177</v>
       </c>
       <c r="AD67" s="15">
-        <v>7775</v>
+        <v>10685</v>
       </c>
       <c r="AE67" s="15">
-        <v>3177</v>
+        <v>7617</v>
       </c>
       <c r="AF67" s="15">
-        <v>10685</v>
+        <v>205</v>
       </c>
       <c r="AG67" s="15">
-        <v>7617</v>
+        <v>725</v>
       </c>
       <c r="AH67" s="15">
-        <v>205</v>
+        <v>402</v>
       </c>
       <c r="AI67" s="15">
-        <v>725</v>
+        <v>4499</v>
       </c>
       <c r="AJ67" s="15">
-        <v>402</v>
+        <v>2354</v>
       </c>
       <c r="AK67" s="15">
-        <v>4499</v>
+        <v>216</v>
       </c>
       <c r="AL67" s="15">
-        <v>2354</v>
+        <v>299</v>
       </c>
       <c r="AM67" s="15">
-        <v>216</v>
+        <v>524</v>
       </c>
       <c r="AN67" s="15">
-        <v>299</v>
+        <v>5714</v>
       </c>
       <c r="AO67" s="15">
-        <v>524</v>
+        <v>382</v>
       </c>
       <c r="AP67" s="15">
-        <v>5714</v>
+        <v>3516</v>
       </c>
       <c r="AQ67" s="15">
-        <v>382</v>
+        <v>588</v>
       </c>
       <c r="AR67" s="15">
-        <v>3516</v>
+        <v>574</v>
       </c>
       <c r="AS67" s="15">
-        <v>588</v>
+        <v>7734</v>
       </c>
       <c r="AT67" s="15">
-        <v>649</v>
+        <v>5796</v>
       </c>
       <c r="AU67" s="15">
-        <v>7734</v>
+        <v>1127</v>
       </c>
       <c r="AV67" s="15">
-        <v>5796</v>
+        <v>613</v>
       </c>
       <c r="AW67" s="15">
-        <v>1137</v>
+        <v>6187</v>
       </c>
       <c r="AX67" s="15">
-        <v>613</v>
+        <v>4110</v>
       </c>
       <c r="AY67" s="15">
-        <v>6187</v>
+        <v>6201</v>
       </c>
       <c r="AZ67" s="15">
-        <v>4110</v>
+        <v>3220</v>
       </c>
       <c r="BA67" s="15">
-        <v>6201</v>
+        <v>7407</v>
       </c>
       <c r="BB67" s="15">
-        <v>3220</v>
+        <v>4568</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>76</v>
       </c>
@@ -9074,7 +9074,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>60</v>
       </c>
@@ -9136,75 +9136,75 @@
       <c r="V69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>57</v>
+      <c r="W69" s="11">
+        <v>-3803</v>
+      </c>
+      <c r="X69" s="11">
+        <v>-52</v>
       </c>
       <c r="Y69" s="11">
-        <v>-3803</v>
+        <v>-1019</v>
       </c>
       <c r="Z69" s="11">
-        <v>-52</v>
+        <v>-1059</v>
       </c>
       <c r="AA69" s="11">
-        <v>-1019</v>
+        <v>-3121</v>
       </c>
       <c r="AB69" s="11">
-        <v>-1059</v>
+        <v>-24</v>
       </c>
       <c r="AC69" s="11">
-        <v>-3121</v>
+        <v>-2866</v>
       </c>
       <c r="AD69" s="11">
-        <v>-24</v>
+        <v>-6197</v>
       </c>
       <c r="AE69" s="11">
-        <v>-2866</v>
-      </c>
-      <c r="AF69" s="11">
-        <v>-6197</v>
+        <v>-3399</v>
+      </c>
+      <c r="AF69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG69" s="11">
-        <v>-3399</v>
-      </c>
-      <c r="AH69" s="11" t="s">
-        <v>57</v>
+        <v>-5930</v>
+      </c>
+      <c r="AH69" s="11">
+        <v>-5254</v>
       </c>
       <c r="AI69" s="11">
-        <v>-5930</v>
+        <v>-12439</v>
       </c>
       <c r="AJ69" s="11">
-        <v>-5254</v>
+        <v>-30114</v>
       </c>
       <c r="AK69" s="11">
-        <v>-12439</v>
+        <v>-4967</v>
       </c>
       <c r="AL69" s="11">
-        <v>-30114</v>
+        <v>-3507</v>
       </c>
       <c r="AM69" s="11">
-        <v>-4967</v>
+        <v>-7402</v>
       </c>
       <c r="AN69" s="11">
-        <v>-3507</v>
+        <v>-13038</v>
       </c>
       <c r="AO69" s="11">
-        <v>-7402</v>
+        <v>-8156</v>
       </c>
       <c r="AP69" s="11">
-        <v>-13038</v>
+        <v>-5712</v>
       </c>
       <c r="AQ69" s="11">
-        <v>-8156</v>
-      </c>
-      <c r="AR69" s="11">
-        <v>-5712</v>
-      </c>
-      <c r="AS69" s="11">
         <v>-19038</v>
       </c>
+      <c r="AR69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS69" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT69" s="11" t="s">
         <v>57</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>62</v>
       </c>
@@ -9361,38 +9361,38 @@
       <c r="AR70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS70" s="13" t="s">
-        <v>57</v>
+      <c r="AS70" s="13">
+        <v>0</v>
       </c>
       <c r="AT70" s="13">
-        <v>0</v>
+        <v>-3360</v>
       </c>
       <c r="AU70" s="13">
-        <v>0</v>
+        <v>-5528</v>
       </c>
       <c r="AV70" s="13">
-        <v>-4813</v>
+        <v>-24930</v>
       </c>
       <c r="AW70" s="13">
-        <v>-5528</v>
+        <v>-3931</v>
       </c>
       <c r="AX70" s="13">
-        <v>-24930</v>
+        <v>0</v>
       </c>
       <c r="AY70" s="13">
-        <v>-3931</v>
+        <v>-7615</v>
       </c>
       <c r="AZ70" s="13">
-        <v>0</v>
+        <v>-1123</v>
       </c>
       <c r="BA70" s="13">
-        <v>-7615</v>
+        <v>0</v>
       </c>
       <c r="BB70" s="13">
-        <v>-1123</v>
+        <v>-15243</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="16" t="s">
         <v>73</v>
       </c>
@@ -9454,104 +9454,104 @@
       <c r="V71" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W71" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X71" s="17" t="s">
-        <v>57</v>
+      <c r="W71" s="17">
+        <v>-3803</v>
+      </c>
+      <c r="X71" s="17">
+        <v>-52</v>
       </c>
       <c r="Y71" s="17">
-        <v>-3803</v>
+        <v>-1019</v>
       </c>
       <c r="Z71" s="17">
-        <v>-52</v>
+        <v>-1059</v>
       </c>
       <c r="AA71" s="17">
-        <v>-1019</v>
+        <v>-3121</v>
       </c>
       <c r="AB71" s="17">
-        <v>-1059</v>
+        <v>-24</v>
       </c>
       <c r="AC71" s="17">
-        <v>-3121</v>
+        <v>-2866</v>
       </c>
       <c r="AD71" s="17">
-        <v>-24</v>
+        <v>-6197</v>
       </c>
       <c r="AE71" s="17">
-        <v>-2866</v>
+        <v>-3399</v>
       </c>
       <c r="AF71" s="17">
-        <v>-6197</v>
+        <v>0</v>
       </c>
       <c r="AG71" s="17">
-        <v>-3399</v>
+        <v>-5930</v>
       </c>
       <c r="AH71" s="17">
-        <v>0</v>
+        <v>-5254</v>
       </c>
       <c r="AI71" s="17">
-        <v>-5930</v>
+        <v>-12439</v>
       </c>
       <c r="AJ71" s="17">
-        <v>-5254</v>
+        <v>-30114</v>
       </c>
       <c r="AK71" s="17">
-        <v>-12439</v>
+        <v>-4967</v>
       </c>
       <c r="AL71" s="17">
-        <v>-30114</v>
+        <v>-3507</v>
       </c>
       <c r="AM71" s="17">
-        <v>-4967</v>
+        <v>-7402</v>
       </c>
       <c r="AN71" s="17">
-        <v>-3507</v>
+        <v>-13038</v>
       </c>
       <c r="AO71" s="17">
-        <v>-7402</v>
+        <v>-8156</v>
       </c>
       <c r="AP71" s="17">
-        <v>-13038</v>
+        <v>-5712</v>
       </c>
       <c r="AQ71" s="17">
-        <v>-8156</v>
+        <v>-19038</v>
       </c>
       <c r="AR71" s="17">
-        <v>-5712</v>
+        <v>0</v>
       </c>
       <c r="AS71" s="17">
-        <v>-19038</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="17">
-        <v>0</v>
+        <v>-3360</v>
       </c>
       <c r="AU71" s="17">
-        <v>0</v>
+        <v>-5528</v>
       </c>
       <c r="AV71" s="17">
-        <v>-4813</v>
+        <v>-24930</v>
       </c>
       <c r="AW71" s="17">
-        <v>-5528</v>
+        <v>-3931</v>
       </c>
       <c r="AX71" s="17">
-        <v>-24930</v>
+        <v>0</v>
       </c>
       <c r="AY71" s="17">
-        <v>-3931</v>
+        <v>-7615</v>
       </c>
       <c r="AZ71" s="17">
-        <v>0</v>
+        <v>-1123</v>
       </c>
       <c r="BA71" s="17">
-        <v>-7615</v>
+        <v>0</v>
       </c>
       <c r="BB71" s="17">
-        <v>-1123</v>
+        <v>-15243</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>77</v>
       </c>
@@ -9608,7 +9608,7 @@
       <c r="BA72" s="9"/>
       <c r="BB72" s="9"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>78</v>
       </c>
@@ -9670,11 +9670,11 @@
       <c r="V73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W73" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X73" s="11" t="s">
-        <v>57</v>
+      <c r="W73" s="11">
+        <v>0</v>
+      </c>
+      <c r="X73" s="11">
+        <v>0</v>
       </c>
       <c r="Y73" s="11">
         <v>0</v>
@@ -9767,164 +9767,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
-        <v>706527</v>
+        <v>653949</v>
       </c>
       <c r="F74" s="15">
-        <v>447740</v>
+        <v>1074365</v>
       </c>
       <c r="G74" s="15">
-        <v>653949</v>
+        <v>1063142</v>
       </c>
       <c r="H74" s="15">
-        <v>1074365</v>
+        <v>330813</v>
       </c>
       <c r="I74" s="15">
-        <v>1063142</v>
+        <v>962794</v>
       </c>
       <c r="J74" s="15">
-        <v>330813</v>
+        <v>685898</v>
       </c>
       <c r="K74" s="15">
-        <v>962794</v>
+        <v>920017</v>
       </c>
       <c r="L74" s="15">
-        <v>685898</v>
+        <v>945490</v>
       </c>
       <c r="M74" s="15">
-        <v>920017</v>
+        <v>872399</v>
       </c>
       <c r="N74" s="15">
-        <v>945490</v>
+        <v>801542</v>
       </c>
       <c r="O74" s="15">
-        <v>872399</v>
+        <v>924985</v>
       </c>
       <c r="P74" s="15">
-        <v>801542</v>
+        <v>1122492</v>
       </c>
       <c r="Q74" s="15">
-        <v>924985</v>
+        <v>907907</v>
       </c>
       <c r="R74" s="15">
-        <v>1122492</v>
+        <v>930433</v>
       </c>
       <c r="S74" s="15">
-        <v>907907</v>
+        <v>663420</v>
       </c>
       <c r="T74" s="15">
-        <v>930433</v>
+        <v>172070</v>
       </c>
       <c r="U74" s="15">
-        <v>663420</v>
+        <v>1293652</v>
       </c>
       <c r="V74" s="15">
-        <v>172070</v>
+        <v>1343307</v>
       </c>
       <c r="W74" s="15">
-        <v>1293652</v>
+        <v>1583506</v>
       </c>
       <c r="X74" s="15">
-        <v>1343307</v>
+        <v>1229090</v>
       </c>
       <c r="Y74" s="15">
-        <v>1583506</v>
+        <v>1399131</v>
       </c>
       <c r="Z74" s="15">
-        <v>1229090</v>
+        <v>2222375</v>
       </c>
       <c r="AA74" s="15">
-        <v>1399131</v>
+        <v>1178418</v>
       </c>
       <c r="AB74" s="15">
-        <v>2222375</v>
+        <v>1370232</v>
       </c>
       <c r="AC74" s="15">
-        <v>1178418</v>
+        <v>1071336</v>
       </c>
       <c r="AD74" s="15">
-        <v>1370232</v>
+        <v>1158979</v>
       </c>
       <c r="AE74" s="15">
-        <v>1071336</v>
+        <v>1839810</v>
       </c>
       <c r="AF74" s="15">
-        <v>1158979</v>
+        <v>1046147</v>
       </c>
       <c r="AG74" s="15">
-        <v>1839810</v>
+        <v>1556696</v>
       </c>
       <c r="AH74" s="15">
-        <v>1046147</v>
+        <v>1981683</v>
       </c>
       <c r="AI74" s="15">
-        <v>1556696</v>
+        <v>2376347</v>
       </c>
       <c r="AJ74" s="15">
-        <v>1981683</v>
+        <v>2339363</v>
       </c>
       <c r="AK74" s="15">
-        <v>2376347</v>
+        <v>1981599</v>
       </c>
       <c r="AL74" s="15">
-        <v>2339363</v>
+        <v>2235244</v>
       </c>
       <c r="AM74" s="15">
-        <v>1981599</v>
+        <v>2887919</v>
       </c>
       <c r="AN74" s="15">
-        <v>2235244</v>
+        <v>3719807</v>
       </c>
       <c r="AO74" s="15">
-        <v>2887919</v>
+        <v>2721555</v>
       </c>
       <c r="AP74" s="15">
-        <v>3719807</v>
+        <v>2594360</v>
       </c>
       <c r="AQ74" s="15">
-        <v>2721555</v>
+        <v>4161400</v>
       </c>
       <c r="AR74" s="15">
-        <v>2590833</v>
+        <v>961645</v>
       </c>
       <c r="AS74" s="15">
-        <v>4161400</v>
+        <v>2585724</v>
       </c>
       <c r="AT74" s="15">
-        <v>862097</v>
+        <v>3122617</v>
       </c>
       <c r="AU74" s="15">
-        <v>2581276</v>
+        <v>3036166</v>
       </c>
       <c r="AV74" s="15">
-        <v>3121164</v>
+        <v>2521026</v>
       </c>
       <c r="AW74" s="15">
-        <v>3037861</v>
+        <v>3533514</v>
       </c>
       <c r="AX74" s="15">
-        <v>2521026</v>
+        <v>2558451</v>
       </c>
       <c r="AY74" s="15">
-        <v>3533515</v>
+        <v>3137873</v>
       </c>
       <c r="AZ74" s="15">
-        <v>2558451</v>
+        <v>2798988</v>
       </c>
       <c r="BA74" s="15">
-        <v>3137873</v>
+        <v>2739932</v>
       </c>
       <c r="BB74" s="15">
-        <v>2792315</v>
+        <v>3372675</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9979,7 +9979,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -10034,7 +10034,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -10089,7 +10089,7 @@
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
     </row>
-    <row r="78" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
         <v>79</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -10301,7 +10301,7 @@
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>80</v>
       </c>
@@ -10358,7 +10358,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>55</v>
       </c>
@@ -10450,45 +10450,45 @@
       <c r="AF81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH81" s="11" t="s">
-        <v>57</v>
+      <c r="AG81" s="11">
+        <v>201048673</v>
+      </c>
+      <c r="AH81" s="11">
+        <v>209952922</v>
       </c>
       <c r="AI81" s="11">
-        <v>201048673</v>
+        <v>213197302</v>
       </c>
       <c r="AJ81" s="11">
-        <v>209952922</v>
+        <v>223184955</v>
       </c>
       <c r="AK81" s="11">
-        <v>213197302</v>
+        <v>225230769</v>
       </c>
       <c r="AL81" s="11">
-        <v>223184955</v>
+        <v>234831055</v>
       </c>
       <c r="AM81" s="11">
-        <v>225230769</v>
+        <v>236561063</v>
       </c>
       <c r="AN81" s="11">
-        <v>234831055</v>
+        <v>236025653</v>
       </c>
       <c r="AO81" s="11">
-        <v>236561063</v>
+        <v>228075738</v>
       </c>
       <c r="AP81" s="11">
-        <v>236025653</v>
+        <v>211011364</v>
       </c>
       <c r="AQ81" s="11">
-        <v>228075738</v>
-      </c>
-      <c r="AR81" s="11">
-        <v>211011364</v>
-      </c>
-      <c r="AS81" s="11">
         <v>204864929</v>
       </c>
+      <c r="AR81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS81" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT81" s="11" t="s">
         <v>57</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>58</v>
       </c>
@@ -10526,95 +10526,95 @@
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13">
-        <v>42000000</v>
+        <v>47928098</v>
       </c>
       <c r="F82" s="13">
-        <v>0</v>
+        <v>51037079</v>
       </c>
       <c r="G82" s="13">
-        <v>47928098</v>
+        <v>52619355</v>
       </c>
       <c r="H82" s="13">
-        <v>51037079</v>
+        <v>0</v>
       </c>
       <c r="I82" s="13">
-        <v>52619355</v>
+        <v>69436548</v>
       </c>
       <c r="J82" s="13">
-        <v>0</v>
+        <v>69620567</v>
       </c>
       <c r="K82" s="13">
-        <v>69436548</v>
+        <v>63913386</v>
       </c>
       <c r="L82" s="13">
-        <v>69620567</v>
+        <v>59358090</v>
       </c>
       <c r="M82" s="13">
-        <v>63913386</v>
+        <v>56629032</v>
       </c>
       <c r="N82" s="13">
-        <v>59358090</v>
+        <v>54640327</v>
       </c>
       <c r="O82" s="13">
-        <v>56629032</v>
+        <v>53696809</v>
       </c>
       <c r="P82" s="13">
-        <v>54640327</v>
+        <v>58394958</v>
       </c>
       <c r="Q82" s="13">
-        <v>53696809</v>
+        <v>59309859</v>
       </c>
       <c r="R82" s="13">
-        <v>58394958</v>
+        <v>63829545</v>
       </c>
       <c r="S82" s="13">
-        <v>59309859</v>
-      </c>
-      <c r="T82" s="13">
-        <v>63829545</v>
-      </c>
-      <c r="U82" s="13">
         <v>57750000</v>
       </c>
+      <c r="T82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U82" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X82" s="13" t="s">
-        <v>57</v>
+      <c r="W82" s="13">
+        <v>105364425</v>
+      </c>
+      <c r="X82" s="13">
+        <v>117020325</v>
       </c>
       <c r="Y82" s="13">
-        <v>105364425</v>
+        <v>132390533</v>
       </c>
       <c r="Z82" s="13">
-        <v>117020325</v>
+        <v>189738248</v>
       </c>
       <c r="AA82" s="13">
-        <v>132390533</v>
+        <v>190787206</v>
       </c>
       <c r="AB82" s="13">
-        <v>189738248</v>
+        <v>160457143</v>
       </c>
       <c r="AC82" s="13">
-        <v>190787206</v>
+        <v>176735225</v>
       </c>
       <c r="AD82" s="13">
-        <v>160457143</v>
+        <v>192494521</v>
       </c>
       <c r="AE82" s="13">
-        <v>176735225</v>
+        <v>177480447</v>
       </c>
       <c r="AF82" s="13">
-        <v>192494521</v>
-      </c>
-      <c r="AG82" s="13">
-        <v>177480447</v>
-      </c>
-      <c r="AH82" s="13">
         <v>201213190</v>
       </c>
+      <c r="AG82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH82" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI82" s="13" t="s">
         <v>57</v>
       </c>
@@ -10642,8 +10642,8 @@
       <c r="AQ82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR82" s="13">
-        <v>0</v>
+      <c r="AR82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS82" s="13" t="s">
         <v>57</v>
@@ -10676,7 +10676,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>59</v>
       </c>
@@ -10691,25 +10691,25 @@
         <v>0</v>
       </c>
       <c r="G83" s="11">
-        <v>0</v>
+        <v>47800000</v>
       </c>
       <c r="H83" s="11">
         <v>0</v>
       </c>
       <c r="I83" s="11">
-        <v>47800000</v>
+        <v>0</v>
       </c>
       <c r="J83" s="11">
         <v>0</v>
       </c>
       <c r="K83" s="11">
-        <v>0</v>
+        <v>50663874</v>
       </c>
       <c r="L83" s="11">
         <v>0</v>
       </c>
       <c r="M83" s="11">
-        <v>50663874</v>
+        <v>0</v>
       </c>
       <c r="N83" s="11">
         <v>0</v>
@@ -10721,59 +10721,59 @@
         <v>0</v>
       </c>
       <c r="Q83" s="11">
-        <v>0</v>
+        <v>54603774</v>
       </c>
       <c r="R83" s="11">
         <v>0</v>
       </c>
       <c r="S83" s="11">
-        <v>54603774</v>
-      </c>
-      <c r="T83" s="11">
-        <v>0</v>
-      </c>
-      <c r="U83" s="11">
         <v>28847059</v>
       </c>
+      <c r="T83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U83" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W83" s="11" t="s">
-        <v>57</v>
+      <c r="W83" s="11">
+        <v>56214286</v>
       </c>
       <c r="X83" s="11" t="s">
         <v>57</v>
       </c>
       <c r="Y83" s="11">
-        <v>56214286</v>
-      </c>
-      <c r="Z83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA83" s="11">
         <v>77000000</v>
       </c>
+      <c r="Z83" s="11">
+        <v>186000000</v>
+      </c>
+      <c r="AA83" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AB83" s="11">
-        <v>186000000</v>
-      </c>
-      <c r="AC83" s="11" t="s">
-        <v>57</v>
+        <v>120133333</v>
+      </c>
+      <c r="AC83" s="11">
+        <v>174380952</v>
       </c>
       <c r="AD83" s="11">
-        <v>120133333</v>
+        <v>199714286</v>
       </c>
       <c r="AE83" s="11">
-        <v>174380952</v>
+        <v>163050532</v>
       </c>
       <c r="AF83" s="11">
-        <v>199714286</v>
-      </c>
-      <c r="AG83" s="11">
-        <v>163050532</v>
-      </c>
-      <c r="AH83" s="11">
         <v>215500000</v>
       </c>
+      <c r="AG83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH83" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AI83" s="11" t="s">
         <v>57</v>
       </c>
@@ -10801,8 +10801,8 @@
       <c r="AQ83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR83" s="11">
-        <v>0</v>
+      <c r="AR83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS83" s="11" t="s">
         <v>57</v>
@@ -10835,7 +10835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>60</v>
       </c>
@@ -10844,128 +10844,128 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>54880464</v>
+        <v>50291601</v>
       </c>
       <c r="F84" s="13">
-        <v>56130128</v>
+        <v>49103050</v>
       </c>
       <c r="G84" s="13">
-        <v>50291601</v>
+        <v>54729369</v>
       </c>
       <c r="H84" s="13">
-        <v>49103050</v>
+        <v>59788361</v>
       </c>
       <c r="I84" s="13">
-        <v>54729369</v>
+        <v>62300794</v>
       </c>
       <c r="J84" s="13">
-        <v>59788361</v>
+        <v>64915489</v>
       </c>
       <c r="K84" s="13">
-        <v>62300794</v>
+        <v>61303077</v>
       </c>
       <c r="L84" s="13">
-        <v>64915489</v>
+        <v>59982839</v>
       </c>
       <c r="M84" s="13">
-        <v>61303077</v>
+        <v>62575981</v>
       </c>
       <c r="N84" s="13">
-        <v>59982839</v>
+        <v>58990260</v>
       </c>
       <c r="O84" s="13">
-        <v>62575981</v>
+        <v>57455339</v>
       </c>
       <c r="P84" s="13">
-        <v>58990260</v>
+        <v>60905089</v>
       </c>
       <c r="Q84" s="13">
-        <v>57455339</v>
+        <v>64262219</v>
       </c>
       <c r="R84" s="13">
-        <v>60905089</v>
+        <v>70714461</v>
       </c>
       <c r="S84" s="13">
-        <v>64262219</v>
+        <v>81656371</v>
       </c>
       <c r="T84" s="13">
-        <v>70714461</v>
+        <v>82088263</v>
       </c>
       <c r="U84" s="13">
-        <v>81656371</v>
+        <v>83196536</v>
       </c>
       <c r="V84" s="13">
-        <v>82088263</v>
+        <v>87588573</v>
       </c>
       <c r="W84" s="13">
-        <v>83196536</v>
+        <v>96344516</v>
       </c>
       <c r="X84" s="13">
-        <v>87588573</v>
+        <v>128661336</v>
       </c>
       <c r="Y84" s="13">
-        <v>96344516</v>
+        <v>153382203</v>
       </c>
       <c r="Z84" s="13">
-        <v>128661336</v>
+        <v>186410682</v>
       </c>
       <c r="AA84" s="13">
-        <v>153382203</v>
+        <v>192914941</v>
       </c>
       <c r="AB84" s="13">
-        <v>186410682</v>
+        <v>179037924</v>
       </c>
       <c r="AC84" s="13">
-        <v>192914941</v>
+        <v>216027391</v>
       </c>
       <c r="AD84" s="13">
-        <v>179037924</v>
+        <v>212737975</v>
       </c>
       <c r="AE84" s="13">
-        <v>216027391</v>
+        <v>216949658</v>
       </c>
       <c r="AF84" s="13">
-        <v>212737975</v>
+        <v>215692380</v>
       </c>
       <c r="AG84" s="13">
-        <v>216949658</v>
+        <v>224342165</v>
       </c>
       <c r="AH84" s="13">
-        <v>215692380</v>
+        <v>225361485</v>
       </c>
       <c r="AI84" s="13">
-        <v>224342165</v>
+        <v>221217955</v>
       </c>
       <c r="AJ84" s="13">
-        <v>225361485</v>
+        <v>232691336</v>
       </c>
       <c r="AK84" s="13">
-        <v>221217955</v>
+        <v>250278092</v>
       </c>
       <c r="AL84" s="13">
-        <v>232691336</v>
+        <v>244641239</v>
       </c>
       <c r="AM84" s="13">
-        <v>250278092</v>
+        <v>249781326</v>
       </c>
       <c r="AN84" s="13">
-        <v>244641239</v>
+        <v>240159040</v>
       </c>
       <c r="AO84" s="13">
-        <v>249781326</v>
+        <v>251866351</v>
       </c>
       <c r="AP84" s="13">
-        <v>240159040</v>
+        <v>229730607</v>
       </c>
       <c r="AQ84" s="13">
-        <v>251866351</v>
-      </c>
-      <c r="AR84" s="13">
-        <v>229730493</v>
-      </c>
-      <c r="AS84" s="13">
         <v>228406815</v>
       </c>
+      <c r="AR84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS84" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT84" s="13" t="s">
         <v>57</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>61</v>
       </c>
@@ -11003,65 +11003,65 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>1057325</v>
+        <v>3572917</v>
       </c>
       <c r="F85" s="11">
-        <v>2300532</v>
+        <v>1069767</v>
       </c>
       <c r="G85" s="11">
-        <v>3572917</v>
+        <v>124169</v>
       </c>
       <c r="H85" s="11">
-        <v>1069767</v>
+        <v>153846</v>
       </c>
       <c r="I85" s="11">
-        <v>124169</v>
+        <v>150000</v>
       </c>
       <c r="J85" s="11">
-        <v>153846</v>
+        <v>10241379</v>
       </c>
       <c r="K85" s="11">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="L85" s="11">
-        <v>10241379</v>
+        <v>597865</v>
       </c>
       <c r="M85" s="11">
-        <v>0</v>
+        <v>148031</v>
       </c>
       <c r="N85" s="11">
-        <v>597865</v>
+        <v>182116</v>
       </c>
       <c r="O85" s="11">
-        <v>148031</v>
+        <v>507576</v>
       </c>
       <c r="P85" s="11">
-        <v>182116</v>
+        <v>247458</v>
       </c>
       <c r="Q85" s="11">
-        <v>507576</v>
+        <v>145979</v>
       </c>
       <c r="R85" s="11">
-        <v>247458</v>
+        <v>144599</v>
       </c>
       <c r="S85" s="11">
-        <v>145979</v>
+        <v>145578</v>
       </c>
       <c r="T85" s="11">
-        <v>144599</v>
+        <v>149425</v>
       </c>
       <c r="U85" s="11">
-        <v>145578</v>
+        <v>717069</v>
       </c>
       <c r="V85" s="11">
-        <v>149425</v>
-      </c>
-      <c r="W85" s="11">
-        <v>717069</v>
-      </c>
-      <c r="X85" s="11">
         <v>297539</v>
       </c>
+      <c r="W85" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X85" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y85" s="11" t="s">
         <v>57</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>62</v>
       </c>
@@ -11278,41 +11278,41 @@
       <c r="AQ86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS86" s="13" t="s">
-        <v>57</v>
+      <c r="AR86" s="13">
+        <v>260468684</v>
+      </c>
+      <c r="AS86" s="13">
+        <v>262364282</v>
       </c>
       <c r="AT86" s="13">
-        <v>254521725</v>
+        <v>254077532</v>
       </c>
       <c r="AU86" s="13">
-        <v>261998101</v>
+        <v>246581606</v>
       </c>
       <c r="AV86" s="13">
-        <v>254077532</v>
+        <v>228223942</v>
       </c>
       <c r="AW86" s="13">
-        <v>246629382</v>
+        <v>223269244</v>
       </c>
       <c r="AX86" s="13">
-        <v>228223942</v>
+        <v>232280285</v>
       </c>
       <c r="AY86" s="13">
-        <v>223269312</v>
+        <v>233271550</v>
       </c>
       <c r="AZ86" s="13">
-        <v>232280285</v>
+        <v>244981048</v>
       </c>
       <c r="BA86" s="13">
-        <v>233271550</v>
+        <v>255902357</v>
       </c>
       <c r="BB86" s="13">
-        <v>244335815</v>
+        <v>296705888</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>66</v>
       </c>
@@ -11437,41 +11437,41 @@
       <c r="AQ87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR87" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS87" s="11" t="s">
-        <v>57</v>
+      <c r="AR87" s="11">
+        <v>213968958</v>
+      </c>
+      <c r="AS87" s="11">
+        <v>223257400</v>
       </c>
       <c r="AT87" s="11">
-        <v>213771111</v>
+        <v>235356796</v>
       </c>
       <c r="AU87" s="11">
-        <v>223257400</v>
+        <v>230254822</v>
       </c>
       <c r="AV87" s="11">
-        <v>235356796</v>
+        <v>195519231</v>
       </c>
       <c r="AW87" s="11">
-        <v>230254822</v>
+        <v>188244748</v>
       </c>
       <c r="AX87" s="11">
-        <v>195519231</v>
+        <v>200824365</v>
       </c>
       <c r="AY87" s="11">
-        <v>188244748</v>
+        <v>213038071</v>
       </c>
       <c r="AZ87" s="11">
-        <v>200824365</v>
+        <v>214585982</v>
       </c>
       <c r="BA87" s="11">
-        <v>213038071</v>
+        <v>222701881</v>
       </c>
       <c r="BB87" s="11">
-        <v>214585982</v>
+        <v>249284000</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>67</v>
       </c>
@@ -11596,41 +11596,41 @@
       <c r="AQ88" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR88" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS88" s="13" t="s">
-        <v>57</v>
+      <c r="AR88" s="13">
+        <v>218941176</v>
+      </c>
+      <c r="AS88" s="13">
+        <v>234000000</v>
       </c>
       <c r="AT88" s="13">
-        <v>218941176</v>
+        <v>239380952</v>
       </c>
       <c r="AU88" s="13">
-        <v>234000000</v>
+        <v>246720238</v>
       </c>
       <c r="AV88" s="13">
-        <v>239380952</v>
+        <v>246250000</v>
       </c>
       <c r="AW88" s="13">
-        <v>246720238</v>
-      </c>
-      <c r="AX88" s="13">
-        <v>246250000</v>
-      </c>
-      <c r="AY88" s="13">
         <v>205614943</v>
       </c>
+      <c r="AX88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY88" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AZ88" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BA88" s="13" t="s">
-        <v>57</v>
+      <c r="BA88" s="13">
+        <v>218608696</v>
       </c>
       <c r="BB88" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>82</v>
       </c>
@@ -11687,7 +11687,7 @@
       <c r="BA89" s="9"/>
       <c r="BB89" s="9"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>61</v>
       </c>
@@ -11749,101 +11749,101 @@
       <c r="V90" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W90" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X90" s="11" t="s">
-        <v>57</v>
+      <c r="W90" s="11">
+        <v>1483654</v>
+      </c>
+      <c r="X90" s="11">
+        <v>250000</v>
       </c>
       <c r="Y90" s="11">
-        <v>1483654</v>
+        <v>390320</v>
       </c>
       <c r="Z90" s="11">
-        <v>250000</v>
+        <v>249631</v>
       </c>
       <c r="AA90" s="11">
-        <v>390320</v>
+        <v>1259615</v>
       </c>
       <c r="AB90" s="11">
-        <v>249631</v>
+        <v>9904459</v>
       </c>
       <c r="AC90" s="11">
-        <v>1259615</v>
+        <v>3028599</v>
       </c>
       <c r="AD90" s="11">
-        <v>9904459</v>
+        <v>6248538</v>
       </c>
       <c r="AE90" s="11">
-        <v>3028599</v>
+        <v>7261201</v>
       </c>
       <c r="AF90" s="11">
-        <v>6248538</v>
+        <v>249695</v>
       </c>
       <c r="AG90" s="11">
-        <v>7261201</v>
+        <v>510563</v>
       </c>
       <c r="AH90" s="11">
-        <v>249695</v>
+        <v>340390</v>
       </c>
       <c r="AI90" s="11">
-        <v>510563</v>
+        <v>2371639</v>
       </c>
       <c r="AJ90" s="11">
-        <v>340390</v>
+        <v>1926350</v>
       </c>
       <c r="AK90" s="11">
-        <v>2371639</v>
+        <v>343949</v>
       </c>
       <c r="AL90" s="11">
-        <v>1926350</v>
+        <v>298403</v>
       </c>
       <c r="AM90" s="11">
-        <v>343949</v>
+        <v>297389</v>
       </c>
       <c r="AN90" s="11">
-        <v>298403</v>
+        <v>3257697</v>
       </c>
       <c r="AO90" s="11">
-        <v>297389</v>
+        <v>297740</v>
       </c>
       <c r="AP90" s="11">
-        <v>3257697</v>
+        <v>3304511</v>
       </c>
       <c r="AQ90" s="11">
-        <v>297740</v>
+        <v>298326</v>
       </c>
       <c r="AR90" s="11">
-        <v>0</v>
+        <v>1001745</v>
       </c>
       <c r="AS90" s="11">
-        <v>298326</v>
+        <v>3649835</v>
       </c>
       <c r="AT90" s="11">
-        <v>1092593</v>
+        <v>3379592</v>
       </c>
       <c r="AU90" s="11">
-        <v>3649835</v>
+        <v>672434</v>
       </c>
       <c r="AV90" s="11">
-        <v>3379592</v>
+        <v>399870</v>
       </c>
       <c r="AW90" s="11">
-        <v>696050</v>
+        <v>4545922</v>
       </c>
       <c r="AX90" s="11">
-        <v>399870</v>
+        <v>2846260</v>
       </c>
       <c r="AY90" s="11">
-        <v>4545922</v>
+        <v>2886872</v>
       </c>
       <c r="AZ90" s="11">
-        <v>2846260</v>
+        <v>2580128</v>
       </c>
       <c r="BA90" s="11">
-        <v>2886872</v>
+        <v>4500000</v>
       </c>
       <c r="BB90" s="11">
-        <v>2580128</v>
+        <v>2569179</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/folad/faspa/product/monthly.xlsx
+++ b/database/industries/folad/faspa/product/monthly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\faspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\faspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6F3C56-3C8A-4371-BDDB-44AABEF67D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -202,13 +201,7 @@
     <t>ورق,بندل,کلاف</t>
   </si>
   <si>
-    <t>لوله های گازی و صنعتی</t>
-  </si>
-  <si>
     <t>محصولات اجرتی</t>
-  </si>
-  <si>
-    <t>انواع لوله گازی و صنعتی</t>
   </si>
   <si>
     <t>محصول صادراتی</t>
@@ -270,11 +263,14 @@
   <si>
     <t>نرخ درآمد ارایه خدمات</t>
   </si>
+  <si>
+    <t>لوله</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -740,10 +736,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1891,7 +1889,7 @@
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>56</v>
@@ -2050,7 +2048,7 @@
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>56</v>
@@ -2209,7 +2207,7 @@
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>56</v>
@@ -2368,7 +2366,7 @@
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>56</v>
@@ -2527,10 +2525,10 @@
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
@@ -2686,7 +2684,7 @@
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>56</v>
@@ -2845,7 +2843,7 @@
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>56</v>
@@ -3004,7 +3002,7 @@
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -3061,7 +3059,7 @@
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>56</v>
@@ -3220,7 +3218,7 @@
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -3377,7 +3375,7 @@
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -3699,7 +3697,7 @@
     </row>
     <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -3911,7 +3909,7 @@
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -4445,7 +4443,7 @@
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>56</v>
@@ -4604,7 +4602,7 @@
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>56</v>
@@ -4763,7 +4761,7 @@
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>56</v>
@@ -4922,7 +4920,7 @@
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>56</v>
@@ -5081,10 +5079,10 @@
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
@@ -5240,7 +5238,7 @@
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>56</v>
@@ -5399,7 +5397,7 @@
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>56</v>
@@ -5558,7 +5556,7 @@
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -5615,7 +5613,7 @@
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>56</v>
@@ -5774,7 +5772,7 @@
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -5931,7 +5929,7 @@
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -5988,7 +5986,7 @@
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>56</v>
@@ -6147,7 +6145,7 @@
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>56</v>
@@ -6306,7 +6304,7 @@
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -6463,7 +6461,7 @@
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -6785,7 +6783,7 @@
     </row>
     <row r="52" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -6997,7 +6995,7 @@
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -7057,7 +7055,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
@@ -7216,7 +7214,7 @@
         <v>58</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
@@ -7375,7 +7373,7 @@
         <v>59</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
@@ -7531,10 +7529,10 @@
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
@@ -7690,10 +7688,10 @@
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
@@ -7849,10 +7847,10 @@
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13" t="s">
@@ -8008,10 +8006,10 @@
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
@@ -8167,10 +8165,10 @@
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13" t="s">
@@ -8326,10 +8324,10 @@
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
@@ -8485,10 +8483,10 @@
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13" t="s">
@@ -8644,7 +8642,7 @@
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -8701,10 +8699,10 @@
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
@@ -8860,10 +8858,10 @@
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15" t="s">
@@ -9019,7 +9017,7 @@
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -9076,10 +9074,10 @@
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
@@ -9235,10 +9233,10 @@
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
@@ -9394,10 +9392,10 @@
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17" t="s">
@@ -9553,7 +9551,7 @@
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -9610,10 +9608,10 @@
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
@@ -9769,7 +9767,7 @@
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -10091,7 +10089,7 @@
     </row>
     <row r="78" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -10303,7 +10301,7 @@
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -10363,7 +10361,7 @@
         <v>55</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
@@ -10522,7 +10520,7 @@
         <v>58</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13">
@@ -10681,7 +10679,7 @@
         <v>59</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
@@ -10837,10 +10835,10 @@
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
@@ -10996,10 +10994,10 @@
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
@@ -11155,10 +11153,10 @@
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13" t="s">
@@ -11314,10 +11312,10 @@
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
@@ -11473,10 +11471,10 @@
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
@@ -11632,7 +11630,7 @@
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -11689,10 +11687,10 @@
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
